--- a/src/attributions/attributions_ig_traj_120.xlsx
+++ b/src/attributions/attributions_ig_traj_120.xlsx
@@ -1004,7 +1004,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1019,7 +1019,7 @@
         <v>-0</v>
       </c>
       <c r="F2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         <v>-0</v>
       </c>
       <c r="O2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>-0</v>
       </c>
       <c r="X2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
@@ -1100,7 +1100,7 @@
         <v>-0</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH2" t="n">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AL2" t="n">
         <v>0</v>
@@ -1127,7 +1127,7 @@
         <v>-0</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ2" t="n">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="AT2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>-0</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ2" t="n">
         <v>0</v>
@@ -1166,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="BC2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD2" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>-0</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI2" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="BL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM2" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>-0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR2" t="n">
         <v>0</v>
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="BU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV2" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>-0</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CA2" t="n">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="CD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE2" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>-0</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ2" t="n">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="CM2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CN2" t="n">
         <v>0</v>
@@ -1289,7 +1289,7 @@
         <v>-0</v>
       </c>
       <c r="CR2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS2" t="n">
         <v>0</v>
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="DE2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF2" t="n">
         <v>0</v>
@@ -1343,7 +1343,7 @@
         <v>-0</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK2" t="n">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="DN2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO2" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>-0</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT2" t="n">
         <v>0</v>
@@ -1409,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="EF2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG2" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL2" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="EO2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EP2" t="n">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>-0</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU2" t="n">
         <v>0</v>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="EX2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY2" t="n">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>-0</v>
       </c>
       <c r="FC2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD2" t="n">
         <v>0</v>
@@ -1490,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="FG2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH2" t="n">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>-0</v>
       </c>
       <c r="FL2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM2" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="FP2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ2" t="n">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>-0</v>
       </c>
       <c r="FU2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV2" t="n">
         <v>0</v>
@@ -1573,100 +1573,100 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>-0.03083523163100796</v>
       </c>
       <c r="B3" t="n">
         <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.03010474479818561</v>
+        <v>0.04174498564630241</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.08055569927759194</v>
+        <v>-0.3340890712440183</v>
       </c>
       <c r="F3" t="n">
         <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1131003005450028</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>-0</v>
+        <v>0.07538811131812849</v>
       </c>
       <c r="K3" t="n">
         <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06164962549873201</v>
+        <v>0.02937788307094774</v>
       </c>
       <c r="M3" t="n">
         <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0.007678342867965876</v>
+        <v>-0.09355157548324265</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.03714401826053059</v>
+        <v>-0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>-0.05202039476038831</v>
       </c>
       <c r="T3" t="n">
         <v>-0</v>
       </c>
       <c r="U3" t="n">
-        <v>0.006812059881283868</v>
+        <v>0.07284789488044252</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.006554616260413472</v>
+        <v>-0.1600048297650426</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y3" t="n">
         <v>-0</v>
       </c>
       <c r="Z3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.03071710632945966</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>-0</v>
+        <v>0.1658499962892412</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>-0.05346917080190182</v>
+        <v>0.05016615213777154</v>
       </c>
       <c r="AE3" t="n">
         <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>-0.04586798812991102</v>
+        <v>-0.04975237186204653</v>
       </c>
       <c r="AG3" t="n">
         <v>0</v>
@@ -1675,25 +1675,25 @@
         <v>-0</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-0.06662181032175638</v>
+        <v>-0</v>
       </c>
       <c r="AK3" t="n">
-        <v>-0</v>
+        <v>-0.04146425212270768</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.001695032519066133</v>
+        <v>-0.01119671521983376</v>
       </c>
       <c r="AN3" t="n">
         <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>-0.01360286901151372</v>
+        <v>-0.1732004230617574</v>
       </c>
       <c r="AP3" t="n">
         <v>0</v>
@@ -1705,25 +1705,25 @@
         <v>-0</v>
       </c>
       <c r="AS3" t="n">
-        <v>-0.01567378093084671</v>
+        <v>-0</v>
       </c>
       <c r="AT3" t="n">
-        <v>0</v>
+        <v>0.003548843488206997</v>
       </c>
       <c r="AU3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV3" t="n">
-        <v>-0.1584748432007293</v>
+        <v>0.1602893918359883</v>
       </c>
       <c r="AW3" t="n">
         <v>0</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.1079083252841594</v>
+        <v>-0.1713037070962831</v>
       </c>
       <c r="AY3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ3" t="n">
         <v>-0</v>
@@ -1732,22 +1732,22 @@
         <v>-0</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.1581306678270794</v>
+        <v>-0</v>
       </c>
       <c r="BC3" t="n">
-        <v>-0</v>
+        <v>-0.0143613344990397</v>
       </c>
       <c r="BD3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BE3" t="n">
-        <v>-0.004197607894388966</v>
+        <v>-0.03263392798251144</v>
       </c>
       <c r="BF3" t="n">
         <v>-0</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.003380966492980673</v>
+        <v>-0.06350226687990182</v>
       </c>
       <c r="BH3" t="n">
         <v>-0</v>
@@ -1756,52 +1756,52 @@
         <v>0</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK3" t="n">
-        <v>-0.01573243786325469</v>
+        <v>-0</v>
       </c>
       <c r="BL3" t="n">
-        <v>-0</v>
+        <v>0.03840486306253919</v>
       </c>
       <c r="BM3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.05130857316722932</v>
+        <v>0.01382963015601583</v>
       </c>
       <c r="BO3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.06582439871975092</v>
+        <v>0.2475647986768957</v>
       </c>
       <c r="BQ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT3" t="n">
-        <v>-0.04286588016873496</v>
+        <v>0</v>
       </c>
       <c r="BU3" t="n">
-        <v>-0</v>
+        <v>-0.1249483253771275</v>
       </c>
       <c r="BV3" t="n">
         <v>0</v>
       </c>
       <c r="BW3" t="n">
-        <v>-0.02711722441780264</v>
+        <v>0.1529509398489406</v>
       </c>
       <c r="BX3" t="n">
         <v>0</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.1254804249874178</v>
+        <v>-0.2295229352607911</v>
       </c>
       <c r="BZ3" t="n">
         <v>-0</v>
@@ -1813,133 +1813,133 @@
         <v>-0</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.1504443847489915</v>
+        <v>0</v>
       </c>
       <c r="CD3" t="n">
-        <v>-0</v>
+        <v>0.05333659077376122</v>
       </c>
       <c r="CE3" t="n">
         <v>0</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.04959249245391695</v>
+        <v>0.02554777236608039</v>
       </c>
       <c r="CG3" t="n">
         <v>0</v>
       </c>
       <c r="CH3" t="n">
-        <v>-0.03864773265487048</v>
+        <v>0.0942378635213596</v>
       </c>
       <c r="CI3" t="n">
         <v>-0</v>
       </c>
       <c r="CJ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK3" t="n">
         <v>-0</v>
       </c>
       <c r="CL3" t="n">
-        <v>-0.03388949326837271</v>
+        <v>0</v>
       </c>
       <c r="CM3" t="n">
-        <v>0</v>
+        <v>-0.01252178465876849</v>
       </c>
       <c r="CN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO3" t="n">
-        <v>-0.005824812620002486</v>
+        <v>0.08558079141702575</v>
       </c>
       <c r="CP3" t="n">
         <v>0</v>
       </c>
       <c r="CQ3" t="n">
-        <v>-0.07457557837715818</v>
+        <v>-0.2003026761762752</v>
       </c>
       <c r="CR3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS3" t="n">
         <v>0</v>
       </c>
       <c r="CT3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU3" t="n">
-        <v>0.08710381941179177</v>
+        <v>-0</v>
       </c>
       <c r="CV3" t="n">
-        <v>0</v>
+        <v>0.05672225587584839</v>
       </c>
       <c r="CW3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.04610066083757215</v>
+        <v>0.008919348763721538</v>
       </c>
       <c r="CY3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CZ3" t="n">
-        <v>-0.06170629071932569</v>
+        <v>0.07242009724372137</v>
       </c>
       <c r="DA3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DB3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC3" t="n">
         <v>0</v>
       </c>
       <c r="DD3" t="n">
-        <v>-0.03773199477229661</v>
+        <v>-0</v>
       </c>
       <c r="DE3" t="n">
-        <v>-0</v>
+        <v>0.03229514358621462</v>
       </c>
       <c r="DF3" t="n">
         <v>0</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.0797637781868161</v>
+        <v>0.0003999297311450402</v>
       </c>
       <c r="DH3" t="n">
         <v>-0</v>
       </c>
       <c r="DI3" t="n">
-        <v>-0.05196997028941731</v>
+        <v>0.143390787534005</v>
       </c>
       <c r="DJ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM3" t="n">
-        <v>-0.00126642021092424</v>
+        <v>0</v>
       </c>
       <c r="DN3" t="n">
-        <v>-0</v>
+        <v>-0.0820824748181741</v>
       </c>
       <c r="DO3" t="n">
         <v>0</v>
       </c>
       <c r="DP3" t="n">
-        <v>-0.08063862688094535</v>
+        <v>0.02854838996336742</v>
       </c>
       <c r="DQ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR3" t="n">
-        <v>-0.0424199365122141</v>
+        <v>0.1240187958282196</v>
       </c>
       <c r="DS3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT3" t="n">
         <v>0</v>
@@ -1948,181 +1948,181 @@
         <v>-0</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.02046534581165218</v>
+        <v>0</v>
       </c>
       <c r="DW3" t="n">
-        <v>0</v>
+        <v>-0.08641808916242283</v>
       </c>
       <c r="DX3" t="n">
         <v>0</v>
       </c>
       <c r="DY3" t="n">
-        <v>0.0008995722231450408</v>
+        <v>0.06943470712956525</v>
       </c>
       <c r="DZ3" t="n">
         <v>0</v>
       </c>
       <c r="EA3" t="n">
-        <v>-0.009822829290382879</v>
+        <v>0.01826984326151871</v>
       </c>
       <c r="EB3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EC3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED3" t="n">
         <v>0</v>
       </c>
       <c r="EE3" t="n">
-        <v>-0.03862533516578986</v>
+        <v>-0</v>
       </c>
       <c r="EF3" t="n">
-        <v>-0</v>
+        <v>0.03105958962594181</v>
       </c>
       <c r="EG3" t="n">
         <v>0</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.04119561368403472</v>
+        <v>-0.01183743430367261</v>
       </c>
       <c r="EI3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.02885052950332461</v>
+        <v>0.01215455959163531</v>
       </c>
       <c r="EK3" t="n">
         <v>0</v>
       </c>
       <c r="EL3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN3" t="n">
-        <v>-0.01684729884433235</v>
+        <v>0</v>
       </c>
       <c r="EO3" t="n">
-        <v>-0</v>
+        <v>0.01479993290516033</v>
       </c>
       <c r="EP3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ3" t="n">
-        <v>-0.04354857385921937</v>
+        <v>0.05078646663636132</v>
       </c>
       <c r="ER3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES3" t="n">
-        <v>-0.0253985505443296</v>
+        <v>-0.01319389902091402</v>
       </c>
       <c r="ET3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW3" t="n">
-        <v>-0.03538452531622548</v>
+        <v>0</v>
       </c>
       <c r="EX3" t="n">
-        <v>-0</v>
+        <v>0.06002507895606981</v>
       </c>
       <c r="EY3" t="n">
         <v>0</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0.0508875198897584</v>
+        <v>0.01348947397834061</v>
       </c>
       <c r="FA3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB3" t="n">
-        <v>-0.03365427499635543</v>
+        <v>0.06323957992780097</v>
       </c>
       <c r="FC3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE3" t="n">
         <v>-0</v>
       </c>
       <c r="FF3" t="n">
-        <v>-0.04605042030530674</v>
+        <v>0</v>
       </c>
       <c r="FG3" t="n">
-        <v>-0</v>
+        <v>0.1099097587169768</v>
       </c>
       <c r="FH3" t="n">
         <v>-0</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.02653094601053993</v>
+        <v>0.04737142968124559</v>
       </c>
       <c r="FJ3" t="n">
         <v>0</v>
       </c>
       <c r="FK3" t="n">
-        <v>-0.06398833685933789</v>
+        <v>0.1144145078189097</v>
       </c>
       <c r="FL3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM3" t="n">
         <v>-0</v>
       </c>
       <c r="FN3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO3" t="n">
-        <v>-0.1012948971243009</v>
+        <v>0</v>
       </c>
       <c r="FP3" t="n">
-        <v>-0</v>
+        <v>0.1378182153151359</v>
       </c>
       <c r="FQ3" t="n">
         <v>0</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.0134623569300276</v>
+        <v>0.0003016147885223471</v>
       </c>
       <c r="FS3" t="n">
         <v>0</v>
       </c>
       <c r="FT3" t="n">
-        <v>-0.00180638053779736</v>
+        <v>0.00776144884348893</v>
       </c>
       <c r="FU3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW3" t="n">
         <v>-0</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.0001172031728820124</v>
+        <v>0</v>
       </c>
       <c r="FY3" t="n">
-        <v>0</v>
+        <v>0.07819228461902696</v>
       </c>
       <c r="FZ3" t="n">
         <v>-0</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.02869379872332726</v>
+        <v>0.1486576452799234</v>
       </c>
       <c r="GB3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC3" t="n">
         <v>-0</v>
@@ -2137,7 +2137,7 @@
         <v>-0</v>
       </c>
       <c r="GG3" t="n">
-        <v>-0.04039762738107591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2145,70 +2145,70 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.2302575036937714</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.02299336582747949</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0.05078603153387848</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01626823270767454</v>
+        <v>-0.04635532134098364</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>-0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08150628973875877</v>
+        <v>-0</v>
       </c>
       <c r="J4" t="n">
         <v>-0</v>
       </c>
       <c r="K4" t="n">
-        <v>-0</v>
+        <v>0.08761228869763653</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01268880416650114</v>
+        <v>-0</v>
       </c>
       <c r="M4" t="n">
-        <v>-0</v>
+        <v>0.0289833222761626</v>
       </c>
       <c r="N4" t="n">
-        <v>2.587221859001497e-05</v>
+        <v>-0.02698925756170125</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0.03713526870037902</v>
+        <v>-0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>-0</v>
+        <v>0.1165061175366519</v>
       </c>
       <c r="U4" t="n">
-        <v>0.01799331024113641</v>
+        <v>-0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>0.03247318740745204</v>
       </c>
       <c r="W4" t="n">
-        <v>0.04461949743202047</v>
+        <v>0.02724334733304633</v>
       </c>
       <c r="X4" t="n">
         <v>-0</v>
@@ -2217,133 +2217,133 @@
         <v>-0</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0.008868020756220165</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
         <v>-0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>0.04446365859983335</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0.01725636203611372</v>
+        <v>-0</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>-0.02513056278600408</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.06372691342946696</v>
+        <v>-0.02774307591818302</v>
       </c>
       <c r="AG4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
         <v>-0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>-0.03920068401702827</v>
+        <v>-0</v>
       </c>
       <c r="AK4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>0.04242596964713773</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.009071516104561052</v>
+        <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>-0.02785262353005715</v>
       </c>
       <c r="AO4" t="n">
-        <v>-0.02499789120120133</v>
+        <v>-0.009750848983609048</v>
       </c>
       <c r="AP4" t="n">
         <v>0</v>
       </c>
       <c r="AQ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0.000108629892925419</v>
+        <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU4" t="n">
-        <v>0</v>
+        <v>0.3960883589520132</v>
       </c>
       <c r="AV4" t="n">
-        <v>-0.06686763490613738</v>
+        <v>-0</v>
       </c>
       <c r="AW4" t="n">
-        <v>0</v>
+        <v>0.01104321207208174</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.02615812513466839</v>
+        <v>0.1770961567831914</v>
       </c>
       <c r="AY4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA4" t="n">
         <v>-0</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.09966501921402496</v>
+        <v>-0</v>
       </c>
       <c r="BC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>-0</v>
+        <v>0.01035901704576626</v>
       </c>
       <c r="BE4" t="n">
-        <v>-0.008422323091270709</v>
+        <v>0</v>
       </c>
       <c r="BF4" t="n">
-        <v>-0</v>
+        <v>-0.03552449993950425</v>
       </c>
       <c r="BG4" t="n">
-        <v>-0.001792673616242562</v>
+        <v>-0.06007351326953553</v>
       </c>
       <c r="BH4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BK4" t="n">
-        <v>-0.005894799617068482</v>
+        <v>0</v>
       </c>
       <c r="BL4" t="n">
         <v>-0</v>
       </c>
       <c r="BM4" t="n">
-        <v>-0</v>
+        <v>0.04151466358540695</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.05246843123361923</v>
+        <v>-0</v>
       </c>
       <c r="BO4" t="n">
-        <v>-0</v>
+        <v>0.08807036872032757</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.03528055375318395</v>
+        <v>0.01165668051349908</v>
       </c>
       <c r="BQ4" t="n">
         <v>-0</v>
@@ -2352,28 +2352,28 @@
         <v>-0</v>
       </c>
       <c r="BS4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT4" t="n">
-        <v>-0.02473990120850467</v>
+        <v>-0</v>
       </c>
       <c r="BU4" t="n">
         <v>-0</v>
       </c>
       <c r="BV4" t="n">
-        <v>0</v>
+        <v>0.2121447564760501</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.00380000335627122</v>
+        <v>0</v>
       </c>
       <c r="BX4" t="n">
-        <v>0</v>
+        <v>0.01309371832300805</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.02761774176590833</v>
+        <v>-0.001944215734213227</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA4" t="n">
         <v>-0</v>
@@ -2382,22 +2382,22 @@
         <v>-0</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.07721412583821372</v>
+        <v>0</v>
       </c>
       <c r="CD4" t="n">
         <v>-0</v>
       </c>
       <c r="CE4" t="n">
-        <v>0</v>
+        <v>-0.06380802182175586</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.0250204039154467</v>
+        <v>0</v>
       </c>
       <c r="CG4" t="n">
-        <v>0</v>
+        <v>0.01325302612157519</v>
       </c>
       <c r="CH4" t="n">
-        <v>-0.006857414421903458</v>
+        <v>-0.02337221471710008</v>
       </c>
       <c r="CI4" t="n">
         <v>-0</v>
@@ -2409,22 +2409,22 @@
         <v>0</v>
       </c>
       <c r="CL4" t="n">
-        <v>-0.02210065438591182</v>
+        <v>0</v>
       </c>
       <c r="CM4" t="n">
         <v>0</v>
       </c>
       <c r="CN4" t="n">
-        <v>0</v>
+        <v>-0.03799857381721142</v>
       </c>
       <c r="CO4" t="n">
-        <v>-0.003592594716254753</v>
+        <v>-0</v>
       </c>
       <c r="CP4" t="n">
-        <v>0</v>
+        <v>-0.1007089265392869</v>
       </c>
       <c r="CQ4" t="n">
-        <v>-0.03327329840306871</v>
+        <v>-0.1510780504573677</v>
       </c>
       <c r="CR4" t="n">
         <v>0</v>
@@ -2433,25 +2433,25 @@
         <v>-0</v>
       </c>
       <c r="CT4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.06245457498831571</v>
+        <v>-0</v>
       </c>
       <c r="CV4" t="n">
         <v>0</v>
       </c>
       <c r="CW4" t="n">
-        <v>-0</v>
+        <v>-0.0512325684298692</v>
       </c>
       <c r="CX4" t="n">
-        <v>0.01624870951012856</v>
+        <v>-0</v>
       </c>
       <c r="CY4" t="n">
-        <v>0</v>
+        <v>0.03897312527755572</v>
       </c>
       <c r="CZ4" t="n">
-        <v>-0.01421010011055431</v>
+        <v>-0.01805333982812926</v>
       </c>
       <c r="DA4" t="n">
         <v>0</v>
@@ -2460,25 +2460,25 @@
         <v>0</v>
       </c>
       <c r="DC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD4" t="n">
-        <v>-0.02182746564857109</v>
+        <v>-0</v>
       </c>
       <c r="DE4" t="n">
         <v>-0</v>
       </c>
       <c r="DF4" t="n">
-        <v>0</v>
+        <v>-0.06924289595763221</v>
       </c>
       <c r="DG4" t="n">
-        <v>-0.006597367530229099</v>
+        <v>0</v>
       </c>
       <c r="DH4" t="n">
-        <v>-0</v>
+        <v>-0.005012415749629913</v>
       </c>
       <c r="DI4" t="n">
-        <v>-0.0007608700061137287</v>
+        <v>0.0001468177834877075</v>
       </c>
       <c r="DJ4" t="n">
         <v>-0</v>
@@ -2490,76 +2490,76 @@
         <v>0</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.02483369366309291</v>
+        <v>0</v>
       </c>
       <c r="DN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO4" t="n">
-        <v>0</v>
+        <v>-0.06249782188231712</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.01651122825184027</v>
+        <v>-0</v>
       </c>
       <c r="DQ4" t="n">
-        <v>-0</v>
+        <v>0.03345910950843985</v>
       </c>
       <c r="DR4" t="n">
-        <v>-0.01989369765115943</v>
+        <v>-0.009555110770285022</v>
       </c>
       <c r="DS4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT4" t="n">
         <v>-0</v>
       </c>
       <c r="DU4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.03167823586430615</v>
+        <v>0</v>
       </c>
       <c r="DW4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX4" t="n">
-        <v>0</v>
+        <v>0.05400128891603025</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.0135779584204911</v>
+        <v>0</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0</v>
+        <v>-0.06760496560744261</v>
       </c>
       <c r="EA4" t="n">
-        <v>-0.0225663412527519</v>
+        <v>-0.0185473820011884</v>
       </c>
       <c r="EB4" t="n">
         <v>0</v>
       </c>
       <c r="EC4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE4" t="n">
-        <v>-0.01150191125307659</v>
+        <v>0</v>
       </c>
       <c r="EF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG4" t="n">
-        <v>0</v>
+        <v>-0.03583153373325045</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.006257249216040984</v>
+        <v>-0</v>
       </c>
       <c r="EI4" t="n">
-        <v>0</v>
+        <v>0.07176445337456486</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.03359075578007464</v>
+        <v>-0.002352259343831362</v>
       </c>
       <c r="EK4" t="n">
         <v>-0</v>
@@ -2568,52 +2568,52 @@
         <v>-0</v>
       </c>
       <c r="EM4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN4" t="n">
-        <v>-0.02571766390310624</v>
+        <v>-0</v>
       </c>
       <c r="EO4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>0</v>
+        <v>-0.03866154423016713</v>
       </c>
       <c r="EQ4" t="n">
-        <v>-0.01067100375816568</v>
+        <v>0</v>
       </c>
       <c r="ER4" t="n">
-        <v>-0</v>
+        <v>-0.03597425431184407</v>
       </c>
       <c r="ES4" t="n">
-        <v>-0.03222609808882027</v>
+        <v>-0.02450240253724206</v>
       </c>
       <c r="ET4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU4" t="n">
         <v>-0</v>
       </c>
       <c r="EV4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW4" t="n">
-        <v>-0.03980460222676378</v>
+        <v>0</v>
       </c>
       <c r="EX4" t="n">
         <v>-0</v>
       </c>
       <c r="EY4" t="n">
-        <v>0</v>
+        <v>-0.05842249063694201</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.01966950240780591</v>
+        <v>0</v>
       </c>
       <c r="FA4" t="n">
-        <v>-0</v>
+        <v>0.02009441960186877</v>
       </c>
       <c r="FB4" t="n">
-        <v>-0.000885854692470978</v>
+        <v>-0.0365543677782427</v>
       </c>
       <c r="FC4" t="n">
         <v>-0</v>
@@ -2622,52 +2622,52 @@
         <v>-0</v>
       </c>
       <c r="FE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF4" t="n">
-        <v>-0.02542925755889574</v>
+        <v>0</v>
       </c>
       <c r="FG4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH4" t="n">
-        <v>-0</v>
+        <v>0.02774364315162035</v>
       </c>
       <c r="FI4" t="n">
-        <v>-0.01102175214474285</v>
+        <v>-0</v>
       </c>
       <c r="FJ4" t="n">
-        <v>-0</v>
+        <v>0.04514260277722268</v>
       </c>
       <c r="FK4" t="n">
-        <v>-0.02100529610715053</v>
+        <v>-0.01776926562376622</v>
       </c>
       <c r="FL4" t="n">
         <v>-0</v>
       </c>
       <c r="FM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN4" t="n">
         <v>-0</v>
       </c>
       <c r="FO4" t="n">
-        <v>-0.03361924369672436</v>
+        <v>0</v>
       </c>
       <c r="FP4" t="n">
         <v>-0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0</v>
+        <v>0.001825826116651833</v>
       </c>
       <c r="FR4" t="n">
-        <v>0.0005164778504652479</v>
+        <v>0</v>
       </c>
       <c r="FS4" t="n">
-        <v>0</v>
+        <v>-0.001149091899991819</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.0001596970370410099</v>
+        <v>0.0005849783758498215</v>
       </c>
       <c r="FU4" t="n">
         <v>-0</v>
@@ -2679,19 +2679,19 @@
         <v>0</v>
       </c>
       <c r="FX4" t="n">
-        <v>3.441863328470853e-06</v>
+        <v>0</v>
       </c>
       <c r="FY4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0</v>
+        <v>-0.005432083994183844</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.01479230779145272</v>
+        <v>-0</v>
       </c>
       <c r="GB4" t="n">
-        <v>0</v>
+        <v>-0.01779269507172356</v>
       </c>
       <c r="GC4" t="n">
         <v>0</v>
@@ -2700,75 +2700,75 @@
         <v>-0</v>
       </c>
       <c r="GE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG4" t="n">
-        <v>-0.019517025145053</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>-0</v>
+        <v>0.04226659454195073</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02856633105302956</v>
+        <v>-0.03982335646850642</v>
       </c>
       <c r="F5" t="n">
-        <v>-0</v>
+        <v>-0.02700569919961005</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.01712082337459054</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06266377903579247</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>-0</v>
+        <v>0.01015353904153345</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N5" t="n">
-        <v>0.001799275223947927</v>
+        <v>-0.01836931254403487</v>
       </c>
       <c r="O5" t="n">
-        <v>-0</v>
+        <v>-0.002846016048880476</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.002322970983380827</v>
+        <v>-0</v>
       </c>
       <c r="Q5" t="n">
         <v>-0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.03537797882878849</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>-0.006722235979341709</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -2777,79 +2777,79 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.04340210834303528</v>
+        <v>-0.01856916012482928</v>
       </c>
       <c r="X5" t="n">
-        <v>-0</v>
+        <v>0.01556837382702964</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.01251379014491096</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="n">
         <v>-0</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0.01547616559000284</v>
+        <v>-0</v>
       </c>
       <c r="AB5" t="n">
         <v>-0</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0</v>
+        <v>0.01888197986854415</v>
       </c>
       <c r="AD5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF5" t="n">
-        <v>-0.04026991236612941</v>
+        <v>0.01283403078454772</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>0.01384091099452332</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.0005447887304008074</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>-0.01529594772201518</v>
+        <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>-0</v>
+        <v>0.006775412350403027</v>
       </c>
       <c r="AM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN5" t="n">
         <v>0</v>
       </c>
       <c r="AO5" t="n">
-        <v>-0.00978255565659655</v>
+        <v>-0.01299732763421728</v>
       </c>
       <c r="AP5" t="n">
-        <v>0</v>
+        <v>-0.00380473984000372</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.027703843769155e-06</v>
+        <v>0</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>-7.19998035470021e-05</v>
+        <v>0</v>
       </c>
       <c r="AT5" t="n">
         <v>-0</v>
       </c>
       <c r="AU5" t="n">
-        <v>-0</v>
+        <v>0.04789190715024955</v>
       </c>
       <c r="AV5" t="n">
         <v>0</v>
@@ -2858,187 +2858,187 @@
         <v>0</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.04947170946767845</v>
+        <v>-0.05095069932202743</v>
       </c>
       <c r="AY5" t="n">
-        <v>0</v>
+        <v>-0.02274431913251646</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.04123379842862097</v>
+        <v>0</v>
       </c>
       <c r="BA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.07230322299662624</v>
+        <v>0</v>
       </c>
       <c r="BC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD5" t="n">
-        <v>-0</v>
+        <v>0.01485789141502011</v>
       </c>
       <c r="BE5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF5" t="n">
         <v>-0</v>
       </c>
       <c r="BG5" t="n">
-        <v>-0.01467173376498216</v>
+        <v>-0.01043514674447431</v>
       </c>
       <c r="BH5" t="n">
-        <v>-0</v>
+        <v>-0.005628195499786752</v>
       </c>
       <c r="BI5" t="n">
-        <v>-0.01031021503627732</v>
+        <v>-0</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.007885695145495879</v>
+        <v>0</v>
       </c>
       <c r="BL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM5" t="n">
-        <v>-0</v>
+        <v>0.03473957109904671</v>
       </c>
       <c r="BN5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.01605108159196631</v>
+        <v>0.01787871418239907</v>
       </c>
       <c r="BQ5" t="n">
-        <v>-0</v>
+        <v>0.004805546237739874</v>
       </c>
       <c r="BR5" t="n">
-        <v>-0.005350654757332228</v>
+        <v>-0</v>
       </c>
       <c r="BS5" t="n">
         <v>0</v>
       </c>
       <c r="BT5" t="n">
-        <v>-0.01029605710648443</v>
+        <v>0</v>
       </c>
       <c r="BU5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV5" t="n">
-        <v>0</v>
+        <v>0.01859575413674023</v>
       </c>
       <c r="BW5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX5" t="n">
         <v>0</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.06337309989605323</v>
+        <v>-0.02635093598763911</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0</v>
+        <v>0.002964487970626785</v>
       </c>
       <c r="CA5" t="n">
-        <v>-0.005239923023821579</v>
+        <v>0</v>
       </c>
       <c r="CB5" t="n">
         <v>-0</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.04774983894860135</v>
+        <v>-0</v>
       </c>
       <c r="CD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE5" t="n">
-        <v>0</v>
+        <v>-0.006003998178021017</v>
       </c>
       <c r="CF5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH5" t="n">
-        <v>-0.01658477316974619</v>
+        <v>0.01455343892773271</v>
       </c>
       <c r="CI5" t="n">
-        <v>0</v>
+        <v>0.0121064551771401</v>
       </c>
       <c r="CJ5" t="n">
-        <v>-0.001820464250301908</v>
+        <v>0</v>
       </c>
       <c r="CK5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL5" t="n">
-        <v>-0.01163948136156368</v>
+        <v>-0</v>
       </c>
       <c r="CM5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CN5" t="n">
-        <v>0</v>
+        <v>0.001236905306161458</v>
       </c>
       <c r="CO5" t="n">
         <v>0</v>
       </c>
       <c r="CP5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CQ5" t="n">
-        <v>-0.0335538308765449</v>
+        <v>0.008618804066517934</v>
       </c>
       <c r="CR5" t="n">
-        <v>-0</v>
+        <v>-0.008405607146442201</v>
       </c>
       <c r="CS5" t="n">
-        <v>-0.01824835817961297</v>
+        <v>-0</v>
       </c>
       <c r="CT5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU5" t="n">
-        <v>0.008857968411483747</v>
+        <v>0</v>
       </c>
       <c r="CV5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW5" t="n">
-        <v>-0</v>
+        <v>-0.0004173875841133941</v>
       </c>
       <c r="CX5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CZ5" t="n">
-        <v>-0.01738089851693331</v>
+        <v>0.0144311844218041</v>
       </c>
       <c r="DA5" t="n">
-        <v>-0</v>
+        <v>0.01483132157113863</v>
       </c>
       <c r="DB5" t="n">
-        <v>0.001946087275985794</v>
+        <v>-0</v>
       </c>
       <c r="DC5" t="n">
         <v>0</v>
       </c>
       <c r="DD5" t="n">
-        <v>-0.01771077742865892</v>
+        <v>0</v>
       </c>
       <c r="DE5" t="n">
         <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>0</v>
+        <v>0.01480538215692793</v>
       </c>
       <c r="DG5" t="n">
         <v>-0</v>
@@ -3047,187 +3047,187 @@
         <v>-0</v>
       </c>
       <c r="DI5" t="n">
-        <v>-0.004719058744966217</v>
+        <v>0.01067504391092807</v>
       </c>
       <c r="DJ5" t="n">
-        <v>-0</v>
+        <v>0.002997426811452797</v>
       </c>
       <c r="DK5" t="n">
-        <v>0.003719943709793789</v>
+        <v>0</v>
       </c>
       <c r="DL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM5" t="n">
-        <v>-0.01095125588419426</v>
+        <v>0</v>
       </c>
       <c r="DN5" t="n">
         <v>-0</v>
       </c>
       <c r="DO5" t="n">
-        <v>0</v>
+        <v>-0.007698001232194517</v>
       </c>
       <c r="DP5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ5" t="n">
         <v>0</v>
       </c>
       <c r="DR5" t="n">
-        <v>-0.03491218944518722</v>
+        <v>0.0169137013234216</v>
       </c>
       <c r="DS5" t="n">
-        <v>-0</v>
+        <v>-0.01180621298529644</v>
       </c>
       <c r="DT5" t="n">
-        <v>-0.006472665839228108</v>
+        <v>-0</v>
       </c>
       <c r="DU5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV5" t="n">
-        <v>0.005171818898649873</v>
+        <v>-0</v>
       </c>
       <c r="DW5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX5" t="n">
-        <v>-0</v>
+        <v>-0.01511874549682356</v>
       </c>
       <c r="DY5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ5" t="n">
         <v>0</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.006343279922991421</v>
+        <v>-0.01424609086787244</v>
       </c>
       <c r="EB5" t="n">
-        <v>0</v>
+        <v>0.001653266811706399</v>
       </c>
       <c r="EC5" t="n">
-        <v>-0.0117533058019854</v>
+        <v>-0</v>
       </c>
       <c r="ED5" t="n">
         <v>-0</v>
       </c>
       <c r="EE5" t="n">
-        <v>0.006964697268262155</v>
+        <v>-0</v>
       </c>
       <c r="EF5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG5" t="n">
-        <v>0</v>
+        <v>-0.001780809623730443</v>
       </c>
       <c r="EH5" t="n">
         <v>-0</v>
       </c>
       <c r="EI5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.003694796514292678</v>
+        <v>0.005668939362516993</v>
       </c>
       <c r="EK5" t="n">
-        <v>0</v>
+        <v>0.00572447860879882</v>
       </c>
       <c r="EL5" t="n">
-        <v>-0.005076273412267544</v>
+        <v>-0</v>
       </c>
       <c r="EM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EN5" t="n">
-        <v>-0.01336336540307504</v>
+        <v>-0</v>
       </c>
       <c r="EO5" t="n">
         <v>0</v>
       </c>
       <c r="EP5" t="n">
-        <v>0</v>
+        <v>0.009051351219507824</v>
       </c>
       <c r="EQ5" t="n">
         <v>-0</v>
       </c>
       <c r="ER5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.01904697062030097</v>
+        <v>0.01977327991938731</v>
       </c>
       <c r="ET5" t="n">
-        <v>0</v>
+        <v>0.009493424030314803</v>
       </c>
       <c r="EU5" t="n">
-        <v>0.01478658272357136</v>
+        <v>0</v>
       </c>
       <c r="EV5" t="n">
         <v>0</v>
       </c>
       <c r="EW5" t="n">
-        <v>-0.008837079534811842</v>
+        <v>-0</v>
       </c>
       <c r="EX5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY5" t="n">
-        <v>0</v>
+        <v>0.002948093779418281</v>
       </c>
       <c r="EZ5" t="n">
         <v>-0</v>
       </c>
       <c r="FA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB5" t="n">
-        <v>-0.01795658417466637</v>
+        <v>0.01409622038970752</v>
       </c>
       <c r="FC5" t="n">
-        <v>0</v>
+        <v>0.01424024028477985</v>
       </c>
       <c r="FD5" t="n">
-        <v>0.004536384349294209</v>
+        <v>0</v>
       </c>
       <c r="FE5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF5" t="n">
-        <v>-0.01562077671252301</v>
+        <v>-0</v>
       </c>
       <c r="FG5" t="n">
         <v>0</v>
       </c>
       <c r="FH5" t="n">
-        <v>0</v>
+        <v>-0.01898180496853687</v>
       </c>
       <c r="FI5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ5" t="n">
         <v>-0</v>
       </c>
       <c r="FK5" t="n">
-        <v>-0.03576650566067242</v>
+        <v>-0.02461766532841797</v>
       </c>
       <c r="FL5" t="n">
-        <v>-0</v>
+        <v>0.01185754676459494</v>
       </c>
       <c r="FM5" t="n">
-        <v>0.01810914115559152</v>
+        <v>0</v>
       </c>
       <c r="FN5" t="n">
         <v>-0</v>
       </c>
       <c r="FO5" t="n">
-        <v>-0.01336653856183271</v>
+        <v>0</v>
       </c>
       <c r="FP5" t="n">
         <v>0</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0</v>
+        <v>0.001633106359650043</v>
       </c>
       <c r="FR5" t="n">
         <v>0</v>
@@ -3236,46 +3236,46 @@
         <v>-0</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.003130182238416725</v>
+        <v>0.001051428458389351</v>
       </c>
       <c r="FU5" t="n">
-        <v>-0</v>
+        <v>0.02825235460742026</v>
       </c>
       <c r="FV5" t="n">
-        <v>0.006644145456798088</v>
+        <v>-0</v>
       </c>
       <c r="FW5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX5" t="n">
-        <v>0.005762318816160812</v>
+        <v>0</v>
       </c>
       <c r="FY5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0</v>
+        <v>-0.01462151883123232</v>
       </c>
       <c r="GA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GB5" t="n">
         <v>0</v>
       </c>
       <c r="GC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD5" t="n">
-        <v>-0</v>
+        <v>0.001790233667182859</v>
       </c>
       <c r="GE5" t="n">
-        <v>0.009642191586517143</v>
+        <v>0</v>
       </c>
       <c r="GF5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG5" t="n">
-        <v>-0.01595161394425377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -3304,13 +3304,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -3331,13 +3331,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -3358,13 +3358,13 @@
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
         <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -3385,13 +3385,13 @@
         <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK6" t="n">
         <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM6" t="n">
         <v>0</v>
@@ -3412,13 +3412,13 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT6" t="n">
         <v>0</v>
       </c>
       <c r="AU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV6" t="n">
         <v>0</v>
@@ -3439,13 +3439,13 @@
         <v>0</v>
       </c>
       <c r="BB6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC6" t="n">
         <v>0</v>
       </c>
       <c r="BD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE6" t="n">
         <v>0</v>
@@ -3466,13 +3466,13 @@
         <v>0</v>
       </c>
       <c r="BK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL6" t="n">
         <v>0</v>
       </c>
       <c r="BM6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN6" t="n">
         <v>0</v>
@@ -3493,13 +3493,13 @@
         <v>0</v>
       </c>
       <c r="BT6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU6" t="n">
         <v>0</v>
       </c>
       <c r="BV6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW6" t="n">
         <v>0</v>
@@ -3520,13 +3520,13 @@
         <v>0</v>
       </c>
       <c r="CC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD6" t="n">
         <v>0</v>
       </c>
       <c r="CE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF6" t="n">
         <v>0</v>
@@ -3547,13 +3547,13 @@
         <v>0</v>
       </c>
       <c r="CL6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM6" t="n">
         <v>0</v>
       </c>
       <c r="CN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO6" t="n">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>0</v>
       </c>
       <c r="CU6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV6" t="n">
         <v>0</v>
@@ -3607,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG6" t="n">
         <v>0</v>
@@ -3628,13 +3628,13 @@
         <v>0</v>
       </c>
       <c r="DM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN6" t="n">
         <v>0</v>
       </c>
       <c r="DO6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP6" t="n">
         <v>0</v>
@@ -3655,7 +3655,7 @@
         <v>0</v>
       </c>
       <c r="DV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW6" t="n">
         <v>0</v>
@@ -3688,7 +3688,7 @@
         <v>0</v>
       </c>
       <c r="EG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH6" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="EN6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO6" t="n">
         <v>0</v>
       </c>
       <c r="EP6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ6" t="n">
         <v>0</v>
@@ -3736,13 +3736,13 @@
         <v>0</v>
       </c>
       <c r="EW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX6" t="n">
         <v>0</v>
       </c>
       <c r="EY6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ6" t="n">
         <v>0</v>
@@ -3763,13 +3763,13 @@
         <v>0</v>
       </c>
       <c r="FF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG6" t="n">
         <v>0</v>
       </c>
       <c r="FH6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI6" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="FO6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP6" t="n">
         <v>0</v>
@@ -3852,16 +3852,16 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.2874670861388494</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.1017800343725566</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>-0.1113744813248131</v>
       </c>
       <c r="E7" t="n">
-        <v>0.04962336177119835</v>
+        <v>-0.02129502590413603</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -3873,49 +3873,49 @@
         <v>-0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.139485127458168</v>
+        <v>-0</v>
       </c>
       <c r="J7" t="n">
         <v>-0</v>
       </c>
       <c r="K7" t="n">
-        <v>-0</v>
+        <v>0.1514739439798997</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.02242390005720585</v>
+        <v>-0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>-0.03123381421525734</v>
       </c>
       <c r="N7" t="n">
-        <v>0.001953533811506699</v>
+        <v>-0.04486436200716118</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0.09752518854402328</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>-0</v>
+        <v>0.1128028992751281</v>
       </c>
       <c r="U7" t="n">
-        <v>0.007037818084824291</v>
+        <v>-0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>0.04158897311327331</v>
       </c>
       <c r="W7" t="n">
-        <v>0.04460533011408302</v>
+        <v>0.03893701180282703</v>
       </c>
       <c r="X7" t="n">
         <v>-0</v>
@@ -3924,28 +3924,28 @@
         <v>-0</v>
       </c>
       <c r="Z7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.01119047016726747</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
         <v>-0</v>
       </c>
       <c r="AC7" t="n">
-        <v>-0</v>
+        <v>0.06875104660683833</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0.03712884238008973</v>
+        <v>-0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>-0.04154616608915666</v>
       </c>
       <c r="AF7" t="n">
-        <v>-0.02973060615273378</v>
+        <v>-0.01318898407585734</v>
       </c>
       <c r="AG7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH7" t="n">
         <v>-0</v>
@@ -3954,130 +3954,130 @@
         <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>-0.07336822360996854</v>
+        <v>-0</v>
       </c>
       <c r="AK7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>0.03186754704975895</v>
       </c>
       <c r="AM7" t="n">
-        <v>-0.01355939934450537</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>-0.02663270975121796</v>
       </c>
       <c r="AO7" t="n">
-        <v>-0.02462614315690643</v>
+        <v>-0.009305417091302417</v>
       </c>
       <c r="AP7" t="n">
         <v>0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>-0.008622675166063579</v>
+        <v>0</v>
       </c>
       <c r="AT7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU7" t="n">
-        <v>0</v>
+        <v>0.3865374802164924</v>
       </c>
       <c r="AV7" t="n">
-        <v>-0.1819716571299636</v>
+        <v>-0</v>
       </c>
       <c r="AW7" t="n">
-        <v>0</v>
+        <v>0.02066416344908297</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.04427333090936492</v>
+        <v>0.2138196576241406</v>
       </c>
       <c r="AY7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA7" t="n">
         <v>-0</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.1264339648107073</v>
+        <v>-0</v>
       </c>
       <c r="BC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD7" t="n">
-        <v>-0</v>
+        <v>0.01800418129857638</v>
       </c>
       <c r="BE7" t="n">
-        <v>-0.0291114708210098</v>
+        <v>0</v>
       </c>
       <c r="BF7" t="n">
-        <v>-0</v>
+        <v>-0.06606893808215498</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.0002019294849350435</v>
+        <v>-0.09238408198349962</v>
       </c>
       <c r="BH7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ7" t="n">
         <v>0</v>
       </c>
       <c r="BK7" t="n">
-        <v>-0.00972898229981602</v>
+        <v>0</v>
       </c>
       <c r="BL7" t="n">
         <v>-0</v>
       </c>
       <c r="BM7" t="n">
-        <v>-0</v>
+        <v>0.03816550522985986</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.05667876547312266</v>
+        <v>-0</v>
       </c>
       <c r="BO7" t="n">
-        <v>-0</v>
+        <v>0.06991598004550273</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.05830741448940927</v>
+        <v>0.04680032591969624</v>
       </c>
       <c r="BQ7" t="n">
         <v>-0</v>
       </c>
       <c r="BR7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT7" t="n">
-        <v>-0.02504122149511146</v>
+        <v>-0</v>
       </c>
       <c r="BU7" t="n">
         <v>-0</v>
       </c>
       <c r="BV7" t="n">
-        <v>-0</v>
+        <v>0.2059657691702138</v>
       </c>
       <c r="BW7" t="n">
-        <v>-0.0225552491006931</v>
+        <v>0</v>
       </c>
       <c r="BX7" t="n">
-        <v>0</v>
+        <v>0.01098557221437625</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.0543487577454656</v>
+        <v>0.02982613276980506</v>
       </c>
       <c r="BZ7" t="n">
         <v>-0</v>
@@ -4089,22 +4089,22 @@
         <v>-0</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.08774725244423752</v>
+        <v>0</v>
       </c>
       <c r="CD7" t="n">
         <v>-0</v>
       </c>
       <c r="CE7" t="n">
-        <v>0</v>
+        <v>-0.06604058866426261</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.04604543824393464</v>
+        <v>0</v>
       </c>
       <c r="CG7" t="n">
-        <v>-0</v>
+        <v>0.01433713632589941</v>
       </c>
       <c r="CH7" t="n">
-        <v>-0.01023815995287615</v>
+        <v>-0.02881233315275288</v>
       </c>
       <c r="CI7" t="n">
         <v>-0</v>
@@ -4116,22 +4116,22 @@
         <v>0</v>
       </c>
       <c r="CL7" t="n">
-        <v>-0.03323745705398109</v>
+        <v>-0</v>
       </c>
       <c r="CM7" t="n">
         <v>0</v>
       </c>
       <c r="CN7" t="n">
-        <v>0</v>
+        <v>-0.0346072614194412</v>
       </c>
       <c r="CO7" t="n">
-        <v>-0.006715226260050722</v>
+        <v>0</v>
       </c>
       <c r="CP7" t="n">
-        <v>0</v>
+        <v>-0.1111493385802223</v>
       </c>
       <c r="CQ7" t="n">
-        <v>-0.009457579428360674</v>
+        <v>-0.1374427577802044</v>
       </c>
       <c r="CR7" t="n">
         <v>0</v>
@@ -4143,22 +4143,22 @@
         <v>-0</v>
       </c>
       <c r="CU7" t="n">
-        <v>0.08803690459270956</v>
+        <v>-0</v>
       </c>
       <c r="CV7" t="n">
         <v>0</v>
       </c>
       <c r="CW7" t="n">
-        <v>-0</v>
+        <v>-0.05175062451639542</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.02888735755337476</v>
+        <v>-0</v>
       </c>
       <c r="CY7" t="n">
-        <v>0</v>
+        <v>0.03577350748300505</v>
       </c>
       <c r="CZ7" t="n">
-        <v>-0.02393975931683481</v>
+        <v>-0.02328274640206962</v>
       </c>
       <c r="DA7" t="n">
         <v>0</v>
@@ -4167,25 +4167,25 @@
         <v>0</v>
       </c>
       <c r="DC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD7" t="n">
-        <v>-0.0366682013695826</v>
+        <v>0</v>
       </c>
       <c r="DE7" t="n">
         <v>-0</v>
       </c>
       <c r="DF7" t="n">
-        <v>0</v>
+        <v>-0.04771736249413293</v>
       </c>
       <c r="DG7" t="n">
-        <v>-0.01254417968788035</v>
+        <v>0</v>
       </c>
       <c r="DH7" t="n">
-        <v>-0</v>
+        <v>-0.003275716275160872</v>
       </c>
       <c r="DI7" t="n">
-        <v>-0.001207695042131766</v>
+        <v>0.001110446921015418</v>
       </c>
       <c r="DJ7" t="n">
         <v>-0</v>
@@ -4197,76 +4197,76 @@
         <v>0</v>
       </c>
       <c r="DM7" t="n">
-        <v>0.03315868615501538</v>
+        <v>0</v>
       </c>
       <c r="DN7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO7" t="n">
-        <v>0</v>
+        <v>-0.07005215648964851</v>
       </c>
       <c r="DP7" t="n">
-        <v>0.001906376264386232</v>
+        <v>-0</v>
       </c>
       <c r="DQ7" t="n">
-        <v>-0</v>
+        <v>0.032354013569855</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.004265326601903091</v>
+        <v>-0.007332453962874238</v>
       </c>
       <c r="DS7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT7" t="n">
         <v>-0</v>
       </c>
       <c r="DU7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV7" t="n">
-        <v>0.02918554505600418</v>
+        <v>0</v>
       </c>
       <c r="DW7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX7" t="n">
-        <v>0</v>
+        <v>0.05200313091024676</v>
       </c>
       <c r="DY7" t="n">
-        <v>0.02058095718735203</v>
+        <v>0</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0</v>
+        <v>-0.06062687371465929</v>
       </c>
       <c r="EA7" t="n">
-        <v>-0.004617095633045024</v>
+        <v>-0.02150867881944668</v>
       </c>
       <c r="EB7" t="n">
         <v>0</v>
       </c>
       <c r="EC7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE7" t="n">
-        <v>-0.02561762487962709</v>
+        <v>0</v>
       </c>
       <c r="EF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG7" t="n">
-        <v>0</v>
+        <v>-0.02371207446839527</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.03081918248395934</v>
+        <v>-0</v>
       </c>
       <c r="EI7" t="n">
-        <v>0</v>
+        <v>0.06456542969570377</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.0341694555479338</v>
+        <v>-0.008077618525027747</v>
       </c>
       <c r="EK7" t="n">
         <v>0</v>
@@ -4275,25 +4275,25 @@
         <v>-0</v>
       </c>
       <c r="EM7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN7" t="n">
-        <v>-0.0294340626300889</v>
+        <v>-0</v>
       </c>
       <c r="EO7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP7" t="n">
-        <v>0</v>
+        <v>-0.0498014412048861</v>
       </c>
       <c r="EQ7" t="n">
-        <v>0.002117746316161234</v>
+        <v>-0</v>
       </c>
       <c r="ER7" t="n">
-        <v>-0</v>
+        <v>-0.03044230737251048</v>
       </c>
       <c r="ES7" t="n">
-        <v>-0.02962580279529058</v>
+        <v>-0.02854460684190254</v>
       </c>
       <c r="ET7" t="n">
         <v>-0</v>
@@ -4302,25 +4302,25 @@
         <v>-0</v>
       </c>
       <c r="EV7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW7" t="n">
-        <v>-0.05993693141334363</v>
+        <v>-0</v>
       </c>
       <c r="EX7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY7" t="n">
-        <v>0</v>
+        <v>-0.06088880120825045</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.03461029073935715</v>
+        <v>-0</v>
       </c>
       <c r="FA7" t="n">
-        <v>-0</v>
+        <v>0.01597226790513694</v>
       </c>
       <c r="FB7" t="n">
-        <v>-0.003243468608821528</v>
+        <v>-0.03058125123578752</v>
       </c>
       <c r="FC7" t="n">
         <v>-0</v>
@@ -4329,55 +4329,55 @@
         <v>-0</v>
       </c>
       <c r="FE7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF7" t="n">
-        <v>-0.04589605258288856</v>
+        <v>0</v>
       </c>
       <c r="FG7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH7" t="n">
-        <v>-0</v>
+        <v>0.03215075035089877</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.02598396626931999</v>
+        <v>-0</v>
       </c>
       <c r="FJ7" t="n">
-        <v>-0</v>
+        <v>0.04104556388902602</v>
       </c>
       <c r="FK7" t="n">
-        <v>-0.02282199557728423</v>
+        <v>-0.01665042453416223</v>
       </c>
       <c r="FL7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN7" t="n">
         <v>-0</v>
       </c>
       <c r="FO7" t="n">
-        <v>-0.05260284203622512</v>
+        <v>0</v>
       </c>
       <c r="FP7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0</v>
+        <v>0.003959335320654948</v>
       </c>
       <c r="FR7" t="n">
-        <v>0.02045435974399741</v>
+        <v>0</v>
       </c>
       <c r="FS7" t="n">
-        <v>-0</v>
+        <v>-0.00787900942763247</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.0036456327082579</v>
+        <v>0.02275905267125922</v>
       </c>
       <c r="FU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV7" t="n">
         <v>-0</v>
@@ -4386,19 +4386,19 @@
         <v>0</v>
       </c>
       <c r="FX7" t="n">
-        <v>-0.0009297941026744105</v>
+        <v>0</v>
       </c>
       <c r="FY7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0</v>
+        <v>-0.01752430293502626</v>
       </c>
       <c r="GA7" t="n">
-        <v>-0.008842364016762741</v>
+        <v>-0</v>
       </c>
       <c r="GB7" t="n">
-        <v>0</v>
+        <v>-0.05188988765706994</v>
       </c>
       <c r="GC7" t="n">
         <v>0</v>
@@ -4407,13 +4407,13 @@
         <v>-0</v>
       </c>
       <c r="GE7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG7" t="n">
-        <v>-0.03935925651552574</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="8">
@@ -4421,7 +4421,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -4442,13 +4442,13 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -4469,13 +4469,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -4496,13 +4496,13 @@
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
         <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -4523,13 +4523,13 @@
         <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK8" t="n">
         <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM8" t="n">
         <v>0</v>
@@ -4550,13 +4550,13 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT8" t="n">
         <v>0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV8" t="n">
         <v>0</v>
@@ -4577,13 +4577,13 @@
         <v>0</v>
       </c>
       <c r="BB8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC8" t="n">
         <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE8" t="n">
         <v>0</v>
@@ -4604,13 +4604,13 @@
         <v>0</v>
       </c>
       <c r="BK8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL8" t="n">
         <v>0</v>
       </c>
       <c r="BM8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN8" t="n">
         <v>0</v>
@@ -4631,13 +4631,13 @@
         <v>0</v>
       </c>
       <c r="BT8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU8" t="n">
         <v>0</v>
       </c>
       <c r="BV8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW8" t="n">
         <v>0</v>
@@ -4658,13 +4658,13 @@
         <v>0</v>
       </c>
       <c r="CC8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD8" t="n">
         <v>0</v>
       </c>
       <c r="CE8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF8" t="n">
         <v>0</v>
@@ -4685,13 +4685,13 @@
         <v>0</v>
       </c>
       <c r="CL8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM8" t="n">
         <v>0</v>
       </c>
       <c r="CN8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO8" t="n">
         <v>0</v>
@@ -4712,7 +4712,7 @@
         <v>0</v>
       </c>
       <c r="CU8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV8" t="n">
         <v>0</v>
@@ -4745,7 +4745,7 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG8" t="n">
         <v>0</v>
@@ -4766,13 +4766,13 @@
         <v>0</v>
       </c>
       <c r="DM8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN8" t="n">
         <v>0</v>
       </c>
       <c r="DO8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP8" t="n">
         <v>0</v>
@@ -4793,7 +4793,7 @@
         <v>0</v>
       </c>
       <c r="DV8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW8" t="n">
         <v>0</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="EG8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH8" t="n">
         <v>0</v>
@@ -4847,13 +4847,13 @@
         <v>0</v>
       </c>
       <c r="EN8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO8" t="n">
         <v>0</v>
       </c>
       <c r="EP8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ8" t="n">
         <v>0</v>
@@ -4874,13 +4874,13 @@
         <v>0</v>
       </c>
       <c r="EW8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX8" t="n">
         <v>0</v>
       </c>
       <c r="EY8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ8" t="n">
         <v>0</v>
@@ -4901,13 +4901,13 @@
         <v>0</v>
       </c>
       <c r="FF8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG8" t="n">
         <v>0</v>
       </c>
       <c r="FH8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI8" t="n">
         <v>0</v>
@@ -4928,7 +4928,7 @@
         <v>0</v>
       </c>
       <c r="FO8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP8" t="n">
         <v>0</v>
@@ -4987,10 +4987,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>-0</v>
+        <v>0.06224943633368885</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -4999,25 +4999,25 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.002628753950353614</v>
+        <v>-0.0114209267401579</v>
       </c>
       <c r="F9" t="n">
-        <v>-0</v>
+        <v>-0.02740243685190335</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.01211521431058426</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06783880642510985</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>-0</v>
+        <v>0.01671256548445396</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -5026,25 +5026,25 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.01773614615356753</v>
+        <v>-0.01502450176646141</v>
       </c>
       <c r="O9" t="n">
-        <v>-0</v>
+        <v>-0.001184291032769072</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.0006728267054173782</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.04166204157230434</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>-0</v>
+        <v>-0.001556396622077524</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -5053,133 +5053,133 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0.006230333520883345</v>
+        <v>-0.0109133616553189</v>
       </c>
       <c r="X9" t="n">
-        <v>-0</v>
+        <v>0.01836830858538081</v>
       </c>
       <c r="Y9" t="n">
-        <v>-0.009352114061386911</v>
+        <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>-0.0008851082227634664</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
         <v>-0</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0</v>
+        <v>0.02035296746675229</v>
       </c>
       <c r="AD9" t="n">
         <v>-0</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.00132018762706145</v>
+        <v>0.02225610772645462</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>0.009062274825080737</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.01913917382723316</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>-0.02033584457508617</v>
+        <v>-0</v>
       </c>
       <c r="AK9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>-0</v>
+        <v>0.01252364605983017</v>
       </c>
       <c r="AM9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO9" t="n">
-        <v>-0.003294757451125241</v>
+        <v>-0.00504138848206248</v>
       </c>
       <c r="AP9" t="n">
-        <v>0</v>
+        <v>-0.006518174836278194</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.003286187885496646</v>
+        <v>0</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>-0.004988084230281952</v>
+        <v>0</v>
       </c>
       <c r="AT9" t="n">
         <v>0</v>
       </c>
       <c r="AU9" t="n">
-        <v>-0</v>
+        <v>0.06901274306167544</v>
       </c>
       <c r="AV9" t="n">
         <v>0</v>
       </c>
       <c r="AW9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.03713870930382231</v>
+        <v>-0.01334082641118218</v>
       </c>
       <c r="AY9" t="n">
-        <v>0</v>
+        <v>-0.01492540330220632</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.03862787437596343</v>
+        <v>0</v>
       </c>
       <c r="BA9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.06956271947838077</v>
+        <v>0</v>
       </c>
       <c r="BC9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD9" t="n">
-        <v>-0</v>
+        <v>0.01777082046096212</v>
       </c>
       <c r="BE9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF9" t="n">
         <v>-0</v>
       </c>
       <c r="BG9" t="n">
-        <v>-0.02100305543534846</v>
+        <v>-0.009727269197194613</v>
       </c>
       <c r="BH9" t="n">
-        <v>-0</v>
+        <v>-0.004726103043218043</v>
       </c>
       <c r="BI9" t="n">
-        <v>-0.0133836623413231</v>
+        <v>-0</v>
       </c>
       <c r="BJ9" t="n">
         <v>0</v>
       </c>
       <c r="BK9" t="n">
-        <v>0.001561932486802825</v>
+        <v>0</v>
       </c>
       <c r="BL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM9" t="n">
-        <v>-0</v>
+        <v>0.03490764249113346</v>
       </c>
       <c r="BN9" t="n">
         <v>-0</v>
@@ -5188,52 +5188,52 @@
         <v>-0</v>
       </c>
       <c r="BP9" t="n">
-        <v>0.02172239187325734</v>
+        <v>0.01983525758967593</v>
       </c>
       <c r="BQ9" t="n">
-        <v>-0</v>
+        <v>0.01235869720408697</v>
       </c>
       <c r="BR9" t="n">
-        <v>-0.005852638534619042</v>
+        <v>-0</v>
       </c>
       <c r="BS9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BT9" t="n">
-        <v>-0.005794657304155189</v>
+        <v>0</v>
       </c>
       <c r="BU9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV9" t="n">
-        <v>0</v>
+        <v>0.02703597504151779</v>
       </c>
       <c r="BW9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY9" t="n">
-        <v>0.03672213620842861</v>
+        <v>-0.02403148486275934</v>
       </c>
       <c r="BZ9" t="n">
-        <v>-0</v>
+        <v>0.01858641686547517</v>
       </c>
       <c r="CA9" t="n">
-        <v>-0.002404265236313449</v>
+        <v>0</v>
       </c>
       <c r="CB9" t="n">
         <v>-0</v>
       </c>
       <c r="CC9" t="n">
-        <v>0.03386499845305165</v>
+        <v>-0</v>
       </c>
       <c r="CD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE9" t="n">
-        <v>0</v>
+        <v>-0.002234446736254342</v>
       </c>
       <c r="CF9" t="n">
         <v>-0</v>
@@ -5242,25 +5242,25 @@
         <v>0</v>
       </c>
       <c r="CH9" t="n">
-        <v>-0.005143817522953231</v>
+        <v>-0.002360752079200103</v>
       </c>
       <c r="CI9" t="n">
-        <v>0</v>
+        <v>0.01518875879815906</v>
       </c>
       <c r="CJ9" t="n">
-        <v>-0.004096267091746915</v>
+        <v>0</v>
       </c>
       <c r="CK9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL9" t="n">
-        <v>-0.006910855168384912</v>
+        <v>-0</v>
       </c>
       <c r="CM9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CN9" t="n">
-        <v>0</v>
+        <v>0.0092330499435115</v>
       </c>
       <c r="CO9" t="n">
         <v>0</v>
@@ -5269,133 +5269,133 @@
         <v>0</v>
       </c>
       <c r="CQ9" t="n">
-        <v>-0.03376711104025423</v>
+        <v>0.005933552745769359</v>
       </c>
       <c r="CR9" t="n">
-        <v>-0</v>
+        <v>-0.03118092089990477</v>
       </c>
       <c r="CS9" t="n">
-        <v>-0.01192868566568389</v>
+        <v>0</v>
       </c>
       <c r="CT9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU9" t="n">
-        <v>0.0382009509101771</v>
+        <v>0</v>
       </c>
       <c r="CV9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW9" t="n">
-        <v>-0</v>
+        <v>0.0004665478950981532</v>
       </c>
       <c r="CX9" t="n">
         <v>0</v>
       </c>
       <c r="CY9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CZ9" t="n">
-        <v>-0.001848914085265987</v>
+        <v>-0.002164285582403092</v>
       </c>
       <c r="DA9" t="n">
-        <v>-0</v>
+        <v>0.01801410187019785</v>
       </c>
       <c r="DB9" t="n">
-        <v>0.001303661038674483</v>
+        <v>-0</v>
       </c>
       <c r="DC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD9" t="n">
-        <v>-0.01330015403254059</v>
+        <v>0</v>
       </c>
       <c r="DE9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>0</v>
+        <v>0.0001361144816858302</v>
       </c>
       <c r="DG9" t="n">
         <v>-0</v>
       </c>
       <c r="DH9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI9" t="n">
-        <v>-0.03139673721089025</v>
+        <v>0.01749953784304399</v>
       </c>
       <c r="DJ9" t="n">
-        <v>-0</v>
+        <v>0.01387908731390689</v>
       </c>
       <c r="DK9" t="n">
-        <v>0.01845878563578705</v>
+        <v>0</v>
       </c>
       <c r="DL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM9" t="n">
-        <v>-0.001460521425270595</v>
+        <v>0</v>
       </c>
       <c r="DN9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO9" t="n">
-        <v>0</v>
+        <v>-0.00100578117325801</v>
       </c>
       <c r="DP9" t="n">
         <v>-0</v>
       </c>
       <c r="DQ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR9" t="n">
-        <v>-0.004785554542604667</v>
+        <v>0.01729127750131859</v>
       </c>
       <c r="DS9" t="n">
-        <v>-0</v>
+        <v>0.005484286883990138</v>
       </c>
       <c r="DT9" t="n">
-        <v>0.003144298994464922</v>
+        <v>0</v>
       </c>
       <c r="DU9" t="n">
         <v>-0</v>
       </c>
       <c r="DV9" t="n">
-        <v>0.01444913483922899</v>
+        <v>-0</v>
       </c>
       <c r="DW9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX9" t="n">
-        <v>-0</v>
+        <v>-0.02190529090153009</v>
       </c>
       <c r="DY9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ9" t="n">
         <v>0</v>
       </c>
       <c r="EA9" t="n">
-        <v>0.0271773323849172</v>
+        <v>-0.03121019965008268</v>
       </c>
       <c r="EB9" t="n">
-        <v>-0</v>
+        <v>-0.01495338696032404</v>
       </c>
       <c r="EC9" t="n">
-        <v>-0.01369008816231613</v>
+        <v>-0</v>
       </c>
       <c r="ED9" t="n">
         <v>-0</v>
       </c>
       <c r="EE9" t="n">
-        <v>-0.0153303703843403</v>
+        <v>-0</v>
       </c>
       <c r="EF9" t="n">
         <v>0</v>
       </c>
       <c r="EG9" t="n">
-        <v>0</v>
+        <v>4.40058778072375e-05</v>
       </c>
       <c r="EH9" t="n">
         <v>-0</v>
@@ -5404,52 +5404,52 @@
         <v>0</v>
       </c>
       <c r="EJ9" t="n">
-        <v>0.01042347488381997</v>
+        <v>-0.002716373875677202</v>
       </c>
       <c r="EK9" t="n">
-        <v>0</v>
+        <v>0.006223908973884969</v>
       </c>
       <c r="EL9" t="n">
-        <v>-0.005742946104046857</v>
+        <v>-0</v>
       </c>
       <c r="EM9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EN9" t="n">
-        <v>-0.01745567516792758</v>
+        <v>-0</v>
       </c>
       <c r="EO9" t="n">
         <v>0</v>
       </c>
       <c r="EP9" t="n">
-        <v>0</v>
+        <v>0.008985119500760025</v>
       </c>
       <c r="EQ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES9" t="n">
-        <v>0.002608517799636231</v>
+        <v>-0.02272589096221852</v>
       </c>
       <c r="ET9" t="n">
-        <v>0</v>
+        <v>-0.03944972242948464</v>
       </c>
       <c r="EU9" t="n">
-        <v>-0.03443043310374996</v>
+        <v>-0</v>
       </c>
       <c r="EV9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW9" t="n">
-        <v>-0.01123183028224872</v>
+        <v>-0</v>
       </c>
       <c r="EX9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY9" t="n">
-        <v>0</v>
+        <v>0.004265206278172327</v>
       </c>
       <c r="EZ9" t="n">
         <v>-0</v>
@@ -5458,52 +5458,52 @@
         <v>0</v>
       </c>
       <c r="FB9" t="n">
-        <v>0.000657296720528439</v>
+        <v>-0.003206415078600628</v>
       </c>
       <c r="FC9" t="n">
-        <v>0</v>
+        <v>0.01967251591599786</v>
       </c>
       <c r="FD9" t="n">
-        <v>0.0002356537446768589</v>
+        <v>0</v>
       </c>
       <c r="FE9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF9" t="n">
-        <v>-0.01042582068189998</v>
+        <v>-0</v>
       </c>
       <c r="FG9" t="n">
         <v>0</v>
       </c>
       <c r="FH9" t="n">
-        <v>-0</v>
+        <v>-0.02127645294242974</v>
       </c>
       <c r="FI9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ9" t="n">
         <v>-0</v>
       </c>
       <c r="FK9" t="n">
-        <v>0.01482336527075985</v>
+        <v>-0.03155241481391572</v>
       </c>
       <c r="FL9" t="n">
-        <v>-0</v>
+        <v>0.00601853008126948</v>
       </c>
       <c r="FM9" t="n">
-        <v>-0.006711552280102608</v>
+        <v>-0</v>
       </c>
       <c r="FN9" t="n">
         <v>-0</v>
       </c>
       <c r="FO9" t="n">
-        <v>-0.01665654843652232</v>
+        <v>0</v>
       </c>
       <c r="FP9" t="n">
         <v>0</v>
       </c>
       <c r="FQ9" t="n">
-        <v>0</v>
+        <v>-0.005764667468911485</v>
       </c>
       <c r="FR9" t="n">
         <v>0</v>
@@ -5512,46 +5512,46 @@
         <v>-0</v>
       </c>
       <c r="FT9" t="n">
-        <v>0.01009673531320589</v>
+        <v>-0.008476663023248385</v>
       </c>
       <c r="FU9" t="n">
-        <v>0</v>
+        <v>0.03280955647058911</v>
       </c>
       <c r="FV9" t="n">
-        <v>-0.008082834286744889</v>
+        <v>-0</v>
       </c>
       <c r="FW9" t="n">
         <v>-0</v>
       </c>
       <c r="FX9" t="n">
-        <v>0.009178033118802897</v>
+        <v>0</v>
       </c>
       <c r="FY9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ9" t="n">
-        <v>0</v>
+        <v>-0.01225664623687978</v>
       </c>
       <c r="GA9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GB9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC9" t="n">
         <v>-0</v>
       </c>
       <c r="GD9" t="n">
-        <v>-0</v>
+        <v>-0.006697259039169762</v>
       </c>
       <c r="GE9" t="n">
-        <v>-0.02003614866318084</v>
+        <v>0</v>
       </c>
       <c r="GF9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG9" t="n">
-        <v>-0.02784894403903606</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -5559,70 +5559,70 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>-0</v>
+        <v>0.2652664475030307</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.06954262558292801</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>-0.09325340356073333</v>
       </c>
       <c r="E10" t="n">
-        <v>0.005577299598977827</v>
+        <v>-0.06988725101901165</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H10" t="n">
         <v>-0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1061666659780846</v>
+        <v>-0</v>
       </c>
       <c r="J10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>-0</v>
+        <v>0.1605030235446298</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.03151696825538226</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>-0</v>
+        <v>-0.04710822884591285</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.02993618236501348</v>
+        <v>-0.08514537463084741</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0.08331284617286369</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>-0</v>
+        <v>0.06431317181450134</v>
       </c>
       <c r="U10" t="n">
-        <v>-0.002037773988552015</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>0.01635446035742453</v>
       </c>
       <c r="W10" t="n">
-        <v>0.01061834578511671</v>
+        <v>0.03294969041300178</v>
       </c>
       <c r="X10" t="n">
         <v>-0</v>
@@ -5631,160 +5631,160 @@
         <v>-0</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.01193951678195244</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
         <v>-0</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0</v>
+        <v>0.07944423913867073</v>
       </c>
       <c r="AD10" t="n">
-        <v>-0.02934923888538785</v>
+        <v>-0</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>-0.0397042123027938</v>
       </c>
       <c r="AF10" t="n">
-        <v>-0.01193214955922826</v>
+        <v>0.0008109963619231852</v>
       </c>
       <c r="AG10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
         <v>-0</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>-0.04175362958329713</v>
+        <v>-0</v>
       </c>
       <c r="AK10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>0.01742706391422246</v>
       </c>
       <c r="AM10" t="n">
-        <v>-0.008928130793823173</v>
+        <v>0</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>-0.02631346826749787</v>
       </c>
       <c r="AO10" t="n">
-        <v>-0.01960749557442997</v>
+        <v>-0.05340751852325941</v>
       </c>
       <c r="AP10" t="n">
         <v>0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>-0.002007006382459119</v>
+        <v>0</v>
       </c>
       <c r="AT10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU10" t="n">
-        <v>0</v>
+        <v>0.3298064580889729</v>
       </c>
       <c r="AV10" t="n">
-        <v>-0.1126583548525964</v>
+        <v>0</v>
       </c>
       <c r="AW10" t="n">
-        <v>0</v>
+        <v>-0.006624944764529754</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.01020671070221106</v>
+        <v>0.1140736179420841</v>
       </c>
       <c r="AY10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA10" t="n">
         <v>-0</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.08636476859637106</v>
+        <v>-0</v>
       </c>
       <c r="BC10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD10" t="n">
-        <v>-0</v>
+        <v>0.02030331822467515</v>
       </c>
       <c r="BE10" t="n">
-        <v>-0.02218186935931246</v>
+        <v>0</v>
       </c>
       <c r="BF10" t="n">
-        <v>-0</v>
+        <v>-0.03384676526644614</v>
       </c>
       <c r="BG10" t="n">
-        <v>-0.00420265784429676</v>
+        <v>-0.1036884694588265</v>
       </c>
       <c r="BH10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ10" t="n">
         <v>0</v>
       </c>
       <c r="BK10" t="n">
-        <v>-0.005952352575429558</v>
+        <v>0</v>
       </c>
       <c r="BL10" t="n">
         <v>-0</v>
       </c>
       <c r="BM10" t="n">
-        <v>-0</v>
+        <v>0.07850916575384327</v>
       </c>
       <c r="BN10" t="n">
-        <v>0.030228949815143</v>
+        <v>-0</v>
       </c>
       <c r="BO10" t="n">
-        <v>-0</v>
+        <v>0.06521045282843832</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.04979729793410032</v>
+        <v>0.08048964616927427</v>
       </c>
       <c r="BQ10" t="n">
         <v>-0</v>
       </c>
       <c r="BR10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT10" t="n">
-        <v>-0.01847291422816251</v>
+        <v>-0</v>
       </c>
       <c r="BU10" t="n">
         <v>-0</v>
       </c>
       <c r="BV10" t="n">
-        <v>-0</v>
+        <v>0.1485442861897867</v>
       </c>
       <c r="BW10" t="n">
-        <v>-0.01927813355805893</v>
+        <v>0</v>
       </c>
       <c r="BX10" t="n">
-        <v>0</v>
+        <v>0.002508761288223753</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.02157101253682591</v>
+        <v>0.03051742144025043</v>
       </c>
       <c r="BZ10" t="n">
         <v>-0</v>
@@ -5796,22 +5796,22 @@
         <v>-0</v>
       </c>
       <c r="CC10" t="n">
-        <v>0.05755500545519084</v>
+        <v>-0</v>
       </c>
       <c r="CD10" t="n">
         <v>-0</v>
       </c>
       <c r="CE10" t="n">
-        <v>0</v>
+        <v>-0.05752507748863129</v>
       </c>
       <c r="CF10" t="n">
-        <v>0.02802875895633383</v>
+        <v>0</v>
       </c>
       <c r="CG10" t="n">
-        <v>0</v>
+        <v>0.006065318679843465</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.004635145834441229</v>
+        <v>-0.0004252281769985802</v>
       </c>
       <c r="CI10" t="n">
         <v>-0</v>
@@ -5823,22 +5823,22 @@
         <v>0</v>
       </c>
       <c r="CL10" t="n">
-        <v>-0.02227642221589165</v>
+        <v>-0</v>
       </c>
       <c r="CM10" t="n">
         <v>0</v>
       </c>
       <c r="CN10" t="n">
-        <v>0</v>
+        <v>-0.04339387129406846</v>
       </c>
       <c r="CO10" t="n">
-        <v>0.0006689406465406543</v>
+        <v>0</v>
       </c>
       <c r="CP10" t="n">
-        <v>0</v>
+        <v>-0.08630849986522827</v>
       </c>
       <c r="CQ10" t="n">
-        <v>-0.01249016089458898</v>
+        <v>-0.0832420540637121</v>
       </c>
       <c r="CR10" t="n">
         <v>0</v>
@@ -5850,22 +5850,22 @@
         <v>-0</v>
       </c>
       <c r="CU10" t="n">
-        <v>0.04920366492446601</v>
+        <v>-0</v>
       </c>
       <c r="CV10" t="n">
         <v>0</v>
       </c>
       <c r="CW10" t="n">
-        <v>0</v>
+        <v>-0.03931765052321663</v>
       </c>
       <c r="CX10" t="n">
-        <v>0.01685688338113029</v>
+        <v>-0</v>
       </c>
       <c r="CY10" t="n">
-        <v>0</v>
+        <v>0.02371364483347937</v>
       </c>
       <c r="CZ10" t="n">
-        <v>-0.003861155588662438</v>
+        <v>0.001915230437197968</v>
       </c>
       <c r="DA10" t="n">
         <v>0</v>
@@ -5874,28 +5874,28 @@
         <v>0</v>
       </c>
       <c r="DC10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD10" t="n">
-        <v>-0.02249209802930246</v>
+        <v>0</v>
       </c>
       <c r="DE10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>0</v>
+        <v>-0.0004375120734241249</v>
       </c>
       <c r="DG10" t="n">
-        <v>0.03039696505071349</v>
+        <v>0</v>
       </c>
       <c r="DH10" t="n">
-        <v>-0</v>
+        <v>0.01615065637976668</v>
       </c>
       <c r="DI10" t="n">
-        <v>0.002842681120284311</v>
+        <v>-0.01487349237295285</v>
       </c>
       <c r="DJ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK10" t="n">
         <v>-0</v>
@@ -5904,25 +5904,25 @@
         <v>0</v>
       </c>
       <c r="DM10" t="n">
-        <v>0.04361967103161021</v>
+        <v>0</v>
       </c>
       <c r="DN10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO10" t="n">
-        <v>0</v>
+        <v>-0.05139983726536106</v>
       </c>
       <c r="DP10" t="n">
-        <v>0.005573844172544883</v>
+        <v>0</v>
       </c>
       <c r="DQ10" t="n">
-        <v>-0</v>
+        <v>-0.05461472931191981</v>
       </c>
       <c r="DR10" t="n">
-        <v>0.0164401176111527</v>
+        <v>-0.004989343966424962</v>
       </c>
       <c r="DS10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT10" t="n">
         <v>0</v>
@@ -5931,22 +5931,22 @@
         <v>-0</v>
       </c>
       <c r="DV10" t="n">
-        <v>0.02072978595590369</v>
+        <v>-0</v>
       </c>
       <c r="DW10" t="n">
         <v>0</v>
       </c>
       <c r="DX10" t="n">
-        <v>0</v>
+        <v>0.03538655913676677</v>
       </c>
       <c r="DY10" t="n">
-        <v>0.007014058008105714</v>
+        <v>0</v>
       </c>
       <c r="DZ10" t="n">
-        <v>0</v>
+        <v>-0.03182348403502251</v>
       </c>
       <c r="EA10" t="n">
-        <v>-0.007154930123983802</v>
+        <v>-0.01354774312725723</v>
       </c>
       <c r="EB10" t="n">
         <v>0</v>
@@ -5955,52 +5955,52 @@
         <v>0</v>
       </c>
       <c r="ED10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE10" t="n">
-        <v>-0.01303137773921664</v>
+        <v>-0</v>
       </c>
       <c r="EF10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG10" t="n">
-        <v>0</v>
+        <v>-0.02713376799883064</v>
       </c>
       <c r="EH10" t="n">
-        <v>0.01436263851332494</v>
+        <v>-0</v>
       </c>
       <c r="EI10" t="n">
-        <v>0</v>
+        <v>0.07590011708084718</v>
       </c>
       <c r="EJ10" t="n">
-        <v>0.02540933616163303</v>
+        <v>0.03578956315362165</v>
       </c>
       <c r="EK10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL10" t="n">
         <v>-0</v>
       </c>
       <c r="EM10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN10" t="n">
-        <v>-0.02018709126146238</v>
+        <v>-0</v>
       </c>
       <c r="EO10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP10" t="n">
-        <v>0</v>
+        <v>-0.04834918944509249</v>
       </c>
       <c r="EQ10" t="n">
-        <v>0.00846638609303314</v>
+        <v>-0</v>
       </c>
       <c r="ER10" t="n">
-        <v>-0</v>
+        <v>-0.04144476314900959</v>
       </c>
       <c r="ES10" t="n">
-        <v>-0.006030886906675787</v>
+        <v>0.01040967670143023</v>
       </c>
       <c r="ET10" t="n">
         <v>-0</v>
@@ -6009,25 +6009,25 @@
         <v>-0</v>
       </c>
       <c r="EV10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW10" t="n">
-        <v>-0.04175241521945895</v>
+        <v>-0</v>
       </c>
       <c r="EX10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY10" t="n">
-        <v>0</v>
+        <v>-0.04802192912613931</v>
       </c>
       <c r="EZ10" t="n">
-        <v>0.02123330799605756</v>
+        <v>-0</v>
       </c>
       <c r="FA10" t="n">
-        <v>-0</v>
+        <v>0.01856460359664011</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.009615400334774741</v>
+        <v>0.01173117629432144</v>
       </c>
       <c r="FC10" t="n">
         <v>-0</v>
@@ -6036,52 +6036,52 @@
         <v>-0</v>
       </c>
       <c r="FE10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF10" t="n">
-        <v>-0.02971950387469106</v>
+        <v>0</v>
       </c>
       <c r="FG10" t="n">
         <v>-0</v>
       </c>
       <c r="FH10" t="n">
-        <v>-0</v>
+        <v>0.0405729457343973</v>
       </c>
       <c r="FI10" t="n">
-        <v>0.02760638622742099</v>
+        <v>-0</v>
       </c>
       <c r="FJ10" t="n">
-        <v>-0</v>
+        <v>0.04545136167327622</v>
       </c>
       <c r="FK10" t="n">
-        <v>-0.02120272030826232</v>
+        <v>-0.02195954387739732</v>
       </c>
       <c r="FL10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO10" t="n">
-        <v>-0.02714277527589404</v>
+        <v>0</v>
       </c>
       <c r="FP10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0</v>
+        <v>-0.001390178938890903</v>
       </c>
       <c r="FR10" t="n">
-        <v>0.01375822307222161</v>
+        <v>-0</v>
       </c>
       <c r="FS10" t="n">
-        <v>-0</v>
+        <v>0.01088834345498924</v>
       </c>
       <c r="FT10" t="n">
-        <v>-0.0008497027719432636</v>
+        <v>0.04189746052114594</v>
       </c>
       <c r="FU10" t="n">
         <v>-0</v>
@@ -6093,34 +6093,34 @@
         <v>0</v>
       </c>
       <c r="FX10" t="n">
-        <v>0.004179208014630348</v>
+        <v>0</v>
       </c>
       <c r="FY10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ10" t="n">
-        <v>0</v>
+        <v>-0.006303847694071393</v>
       </c>
       <c r="GA10" t="n">
-        <v>-0.004473913902734839</v>
+        <v>-0</v>
       </c>
       <c r="GB10" t="n">
-        <v>0</v>
+        <v>-0.01927570199074076</v>
       </c>
       <c r="GC10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD10" t="n">
         <v>-0</v>
       </c>
       <c r="GE10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG10" t="n">
-        <v>-0.02976617630318096</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="11">
@@ -6128,7 +6128,7 @@
         <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -6149,13 +6149,13 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -6176,13 +6176,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -6203,13 +6203,13 @@
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
         <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -6230,13 +6230,13 @@
         <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
         <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM11" t="n">
         <v>0</v>
@@ -6257,13 +6257,13 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT11" t="n">
         <v>0</v>
       </c>
       <c r="AU11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV11" t="n">
         <v>0</v>
@@ -6284,13 +6284,13 @@
         <v>0</v>
       </c>
       <c r="BB11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC11" t="n">
         <v>0</v>
       </c>
       <c r="BD11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE11" t="n">
         <v>0</v>
@@ -6311,13 +6311,13 @@
         <v>0</v>
       </c>
       <c r="BK11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL11" t="n">
         <v>0</v>
       </c>
       <c r="BM11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN11" t="n">
         <v>0</v>
@@ -6338,13 +6338,13 @@
         <v>0</v>
       </c>
       <c r="BT11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU11" t="n">
         <v>0</v>
       </c>
       <c r="BV11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW11" t="n">
         <v>0</v>
@@ -6365,13 +6365,13 @@
         <v>0</v>
       </c>
       <c r="CC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD11" t="n">
         <v>0</v>
       </c>
       <c r="CE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF11" t="n">
         <v>0</v>
@@ -6392,13 +6392,13 @@
         <v>0</v>
       </c>
       <c r="CL11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM11" t="n">
         <v>0</v>
       </c>
       <c r="CN11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO11" t="n">
         <v>0</v>
@@ -6419,7 +6419,7 @@
         <v>0</v>
       </c>
       <c r="CU11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV11" t="n">
         <v>0</v>
@@ -6452,7 +6452,7 @@
         <v>0</v>
       </c>
       <c r="DF11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG11" t="n">
         <v>0</v>
@@ -6473,13 +6473,13 @@
         <v>0</v>
       </c>
       <c r="DM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN11" t="n">
         <v>0</v>
       </c>
       <c r="DO11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP11" t="n">
         <v>0</v>
@@ -6500,7 +6500,7 @@
         <v>0</v>
       </c>
       <c r="DV11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW11" t="n">
         <v>0</v>
@@ -6533,7 +6533,7 @@
         <v>0</v>
       </c>
       <c r="EG11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH11" t="n">
         <v>0</v>
@@ -6554,13 +6554,13 @@
         <v>0</v>
       </c>
       <c r="EN11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO11" t="n">
         <v>0</v>
       </c>
       <c r="EP11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ11" t="n">
         <v>0</v>
@@ -6581,13 +6581,13 @@
         <v>0</v>
       </c>
       <c r="EW11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX11" t="n">
         <v>0</v>
       </c>
       <c r="EY11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ11" t="n">
         <v>0</v>
@@ -6608,13 +6608,13 @@
         <v>0</v>
       </c>
       <c r="FF11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG11" t="n">
         <v>0</v>
       </c>
       <c r="FH11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI11" t="n">
         <v>0</v>
@@ -6635,7 +6635,7 @@
         <v>0</v>
       </c>
       <c r="FO11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP11" t="n">
         <v>0</v>
@@ -6694,19 +6694,19 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>-0</v>
+        <v>0.2813035719948727</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.03209039389285399</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-0</v>
+        <v>-0.0301008823231791</v>
       </c>
       <c r="E12" t="n">
-        <v>0.02078486045303827</v>
+        <v>-0.05643782752801008</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -6718,103 +6718,103 @@
         <v>-0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.08018758476098665</v>
+        <v>-0</v>
       </c>
       <c r="J12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>-0</v>
+        <v>0.1449406442154503</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.01122846565668511</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>-0</v>
+        <v>-0.01227820440265649</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.02493626480117951</v>
+        <v>-0.05214580352960676</v>
       </c>
       <c r="O12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.06850111726710972</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>-0</v>
+        <v>0.04178432427669106</v>
       </c>
       <c r="U12" t="n">
-        <v>-0.007666366046988506</v>
+        <v>-0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>-0.02043399758191116</v>
       </c>
       <c r="W12" t="n">
-        <v>-0.01579114208266591</v>
+        <v>0.03999173490385394</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y12" t="n">
         <v>-0</v>
       </c>
       <c r="Z12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.02274491590328765</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
         <v>-0</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>0.04844257036043886</v>
       </c>
       <c r="AD12" t="n">
-        <v>-0.02909245463925698</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>-0</v>
+        <v>-0.01199536932348555</v>
       </c>
       <c r="AF12" t="n">
-        <v>-0.01432596209427262</v>
+        <v>0.005327766004050346</v>
       </c>
       <c r="AG12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH12" t="n">
         <v>-0</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>-0.03705593898328819</v>
+        <v>-0</v>
       </c>
       <c r="AK12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>-0.0148863883364908</v>
       </c>
       <c r="AM12" t="n">
-        <v>-0.0007520665222588576</v>
+        <v>-0</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>-0.01167318656378591</v>
       </c>
       <c r="AO12" t="n">
-        <v>-0.02157753670763875</v>
+        <v>-0.03011800953279444</v>
       </c>
       <c r="AP12" t="n">
         <v>0</v>
@@ -6826,103 +6826,103 @@
         <v>-0</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.0006785408343418466</v>
+        <v>0</v>
       </c>
       <c r="AT12" t="n">
         <v>-0</v>
       </c>
       <c r="AU12" t="n">
-        <v>-0</v>
+        <v>0.2594349257693344</v>
       </c>
       <c r="AV12" t="n">
-        <v>-0.04539351017638521</v>
+        <v>-0</v>
       </c>
       <c r="AW12" t="n">
-        <v>-0</v>
+        <v>0.03112393365565282</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.01880435016195594</v>
+        <v>0.05296356718650179</v>
       </c>
       <c r="AY12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA12" t="n">
         <v>-0</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.07458262316952993</v>
+        <v>-0</v>
       </c>
       <c r="BC12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD12" t="n">
-        <v>-0</v>
+        <v>0.05950022986860797</v>
       </c>
       <c r="BE12" t="n">
-        <v>-0.02223527429595802</v>
+        <v>0</v>
       </c>
       <c r="BF12" t="n">
-        <v>-0</v>
+        <v>-0.05342703258022106</v>
       </c>
       <c r="BG12" t="n">
-        <v>-9.152639778427129e-05</v>
+        <v>-0.04975569349601068</v>
       </c>
       <c r="BH12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ12" t="n">
         <v>0</v>
       </c>
       <c r="BK12" t="n">
-        <v>-0.02229386264732589</v>
+        <v>0</v>
       </c>
       <c r="BL12" t="n">
         <v>-0</v>
       </c>
       <c r="BM12" t="n">
-        <v>-0</v>
+        <v>0.106985337916301</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.04584106117317892</v>
+        <v>0</v>
       </c>
       <c r="BO12" t="n">
-        <v>0</v>
+        <v>0.01641749343003522</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.04041230062705919</v>
+        <v>0.09260111423073636</v>
       </c>
       <c r="BQ12" t="n">
         <v>-0</v>
       </c>
       <c r="BR12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT12" t="n">
-        <v>-0.02084764905193355</v>
+        <v>-0</v>
       </c>
       <c r="BU12" t="n">
         <v>-0</v>
       </c>
       <c r="BV12" t="n">
-        <v>-0</v>
+        <v>0.1307778550860325</v>
       </c>
       <c r="BW12" t="n">
-        <v>-0.0003016820969286604</v>
+        <v>0</v>
       </c>
       <c r="BX12" t="n">
-        <v>0</v>
+        <v>0.02320385709261587</v>
       </c>
       <c r="BY12" t="n">
-        <v>0.03392756825727432</v>
+        <v>0.02381837787731442</v>
       </c>
       <c r="BZ12" t="n">
         <v>-0</v>
@@ -6934,49 +6934,49 @@
         <v>-0</v>
       </c>
       <c r="CC12" t="n">
-        <v>0.05709685376878756</v>
+        <v>-0</v>
       </c>
       <c r="CD12" t="n">
         <v>-0</v>
       </c>
       <c r="CE12" t="n">
-        <v>0</v>
+        <v>-0.05267134566128882</v>
       </c>
       <c r="CF12" t="n">
-        <v>0.02167954570082242</v>
+        <v>0</v>
       </c>
       <c r="CG12" t="n">
-        <v>0</v>
+        <v>-0.005832734112573052</v>
       </c>
       <c r="CH12" t="n">
-        <v>-0.003523576901800031</v>
+        <v>0.005641751575165319</v>
       </c>
       <c r="CI12" t="n">
         <v>-0</v>
       </c>
       <c r="CJ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL12" t="n">
-        <v>-0.01054808909882439</v>
+        <v>0</v>
       </c>
       <c r="CM12" t="n">
         <v>0</v>
       </c>
       <c r="CN12" t="n">
-        <v>0</v>
+        <v>-0.05886561677130826</v>
       </c>
       <c r="CO12" t="n">
-        <v>0.007271967780298751</v>
+        <v>-0</v>
       </c>
       <c r="CP12" t="n">
-        <v>0</v>
+        <v>-0.03483614577236063</v>
       </c>
       <c r="CQ12" t="n">
-        <v>-0.04715603236864324</v>
+        <v>-0.06252193968245229</v>
       </c>
       <c r="CR12" t="n">
         <v>0</v>
@@ -6985,25 +6985,25 @@
         <v>0</v>
       </c>
       <c r="CT12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU12" t="n">
-        <v>0.0436030446832588</v>
+        <v>-0</v>
       </c>
       <c r="CV12" t="n">
         <v>0</v>
       </c>
       <c r="CW12" t="n">
-        <v>-0</v>
+        <v>-0.03537030496982597</v>
       </c>
       <c r="CX12" t="n">
-        <v>0.01963252583234125</v>
+        <v>-0</v>
       </c>
       <c r="CY12" t="n">
-        <v>-0</v>
+        <v>0.006124552125493847</v>
       </c>
       <c r="CZ12" t="n">
-        <v>-0.01499658432653919</v>
+        <v>0.002955863352439839</v>
       </c>
       <c r="DA12" t="n">
         <v>0</v>
@@ -7015,25 +7015,25 @@
         <v>0</v>
       </c>
       <c r="DD12" t="n">
-        <v>-0.01408834790053051</v>
+        <v>0</v>
       </c>
       <c r="DE12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>0</v>
+        <v>-0.009049605335281114</v>
       </c>
       <c r="DG12" t="n">
-        <v>0.03910588981692117</v>
+        <v>0</v>
       </c>
       <c r="DH12" t="n">
-        <v>-0</v>
+        <v>0.05063832496443729</v>
       </c>
       <c r="DI12" t="n">
-        <v>0.001218569029551518</v>
+        <v>0.007324616173862491</v>
       </c>
       <c r="DJ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK12" t="n">
         <v>-0</v>
@@ -7042,49 +7042,49 @@
         <v>0</v>
       </c>
       <c r="DM12" t="n">
-        <v>0.007170107951663569</v>
+        <v>0</v>
       </c>
       <c r="DN12" t="n">
         <v>-0</v>
       </c>
       <c r="DO12" t="n">
-        <v>0</v>
+        <v>-0.062938030785407</v>
       </c>
       <c r="DP12" t="n">
-        <v>-0.02896108947410043</v>
+        <v>0</v>
       </c>
       <c r="DQ12" t="n">
-        <v>0</v>
+        <v>0.003870150912557851</v>
       </c>
       <c r="DR12" t="n">
-        <v>-3.648624829489092e-05</v>
+        <v>-0.01715135228154514</v>
       </c>
       <c r="DS12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU12" t="n">
         <v>-0</v>
       </c>
       <c r="DV12" t="n">
-        <v>0.02989581537107689</v>
+        <v>-0</v>
       </c>
       <c r="DW12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX12" t="n">
-        <v>-0</v>
+        <v>0.001620471671114557</v>
       </c>
       <c r="DY12" t="n">
-        <v>0.00114335371413989</v>
+        <v>0</v>
       </c>
       <c r="DZ12" t="n">
-        <v>0</v>
+        <v>-0.00997841698006505</v>
       </c>
       <c r="EA12" t="n">
-        <v>0.009918933590003081</v>
+        <v>-0.03203509119809108</v>
       </c>
       <c r="EB12" t="n">
         <v>0</v>
@@ -7096,154 +7096,154 @@
         <v>0</v>
       </c>
       <c r="EE12" t="n">
-        <v>-0.01529047079382082</v>
+        <v>0</v>
       </c>
       <c r="EF12" t="n">
         <v>-0</v>
       </c>
       <c r="EG12" t="n">
-        <v>0</v>
+        <v>-0.03387613475128066</v>
       </c>
       <c r="EH12" t="n">
-        <v>0.01271603822229961</v>
+        <v>-0</v>
       </c>
       <c r="EI12" t="n">
-        <v>0</v>
+        <v>-0.001585720219689498</v>
       </c>
       <c r="EJ12" t="n">
-        <v>0.02517597302419776</v>
+        <v>0.04901037069550478</v>
       </c>
       <c r="EK12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL12" t="n">
         <v>-0</v>
       </c>
       <c r="EM12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN12" t="n">
-        <v>-0.01143449667068123</v>
+        <v>-0</v>
       </c>
       <c r="EO12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP12" t="n">
-        <v>0</v>
+        <v>-0.02368006165593776</v>
       </c>
       <c r="EQ12" t="n">
-        <v>-0.02951831474124962</v>
+        <v>0</v>
       </c>
       <c r="ER12" t="n">
-        <v>-0</v>
+        <v>0.006879093251294921</v>
       </c>
       <c r="ES12" t="n">
-        <v>0.003984697372490427</v>
+        <v>0.02384752590249433</v>
       </c>
       <c r="ET12" t="n">
         <v>-0</v>
       </c>
       <c r="EU12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV12" t="n">
         <v>-0</v>
       </c>
       <c r="EW12" t="n">
-        <v>-0.02495303452396142</v>
+        <v>0</v>
       </c>
       <c r="EX12" t="n">
         <v>-0</v>
       </c>
       <c r="EY12" t="n">
-        <v>0</v>
+        <v>-0.03412589096124122</v>
       </c>
       <c r="EZ12" t="n">
-        <v>0.02054350799687009</v>
+        <v>0</v>
       </c>
       <c r="FA12" t="n">
-        <v>0</v>
+        <v>0.0001089485766206362</v>
       </c>
       <c r="FB12" t="n">
-        <v>-0.0002128415894492026</v>
+        <v>0.01320349637276338</v>
       </c>
       <c r="FC12" t="n">
         <v>-0</v>
       </c>
       <c r="FD12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE12" t="n">
         <v>-0</v>
       </c>
       <c r="FF12" t="n">
-        <v>-0.02049180423338793</v>
+        <v>0</v>
       </c>
       <c r="FG12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH12" t="n">
-        <v>-0</v>
+        <v>0.0149542454249308</v>
       </c>
       <c r="FI12" t="n">
-        <v>0.02523959680750743</v>
+        <v>-0</v>
       </c>
       <c r="FJ12" t="n">
-        <v>-0</v>
+        <v>0.01884184398715685</v>
       </c>
       <c r="FK12" t="n">
-        <v>-0.03530399162005065</v>
+        <v>-0.0357610994547067</v>
       </c>
       <c r="FL12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM12" t="n">
         <v>-0</v>
       </c>
       <c r="FN12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO12" t="n">
-        <v>-0.04054512953703017</v>
+        <v>0</v>
       </c>
       <c r="FP12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ12" t="n">
-        <v>-0</v>
+        <v>-0.02803855844894806</v>
       </c>
       <c r="FR12" t="n">
-        <v>0.01423414220738527</v>
+        <v>-0</v>
       </c>
       <c r="FS12" t="n">
-        <v>0</v>
+        <v>-0.01376656434050059</v>
       </c>
       <c r="FT12" t="n">
-        <v>0.02405846473732659</v>
+        <v>0.007241233376714142</v>
       </c>
       <c r="FU12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX12" t="n">
-        <v>-0.006733090605020314</v>
+        <v>0</v>
       </c>
       <c r="FY12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ12" t="n">
-        <v>0</v>
+        <v>-0.004899291516374995</v>
       </c>
       <c r="GA12" t="n">
-        <v>0.01047415326700448</v>
+        <v>-0</v>
       </c>
       <c r="GB12" t="n">
-        <v>0</v>
+        <v>-0.0186763988837574</v>
       </c>
       <c r="GC12" t="n">
         <v>-0</v>
@@ -7255,10 +7255,10 @@
         <v>0</v>
       </c>
       <c r="GF12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG12" t="n">
-        <v>-0.01806095687089017</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="13">
@@ -7266,127 +7266,127 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>-0</v>
+        <v>0.1753325542458682</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1353511022470101</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.02940705825120163</v>
+        <v>-0.001861025648660907</v>
       </c>
       <c r="F13" t="n">
-        <v>-0</v>
+        <v>-0.1201682660389519</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2147362602636878</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-0</v>
+        <v>0.1168889493713425</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.06754968182124903</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.02032949436868954</v>
+        <v>-0.01017045448786457</v>
       </c>
       <c r="O13" t="n">
-        <v>-0</v>
+        <v>-0.08542626605887788</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q13" t="n">
         <v>-0</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1771453685553847</v>
+        <v>-0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T13" t="n">
-        <v>-0</v>
+        <v>0.008446767148017184</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.03950671274104939</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0.1322144969855618</v>
+        <v>-0.01278187809399203</v>
       </c>
       <c r="X13" t="n">
-        <v>-0</v>
+        <v>-0.002970754225196949</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.05897641946913758</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
         <v>-0</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0</v>
+        <v>0.02394926874866394</v>
       </c>
       <c r="AD13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>-0.03105306885401268</v>
+        <v>-0</v>
       </c>
       <c r="AF13" t="n">
-        <v>-0.02489924619707295</v>
+        <v>0.01781980329618022</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>-0.009280291295394521</v>
       </c>
       <c r="AH13" t="n">
         <v>-0</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-0.07907122723629693</v>
+        <v>0</v>
       </c>
       <c r="AK13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>-0</v>
+        <v>0.003413801094535957</v>
       </c>
       <c r="AM13" t="n">
         <v>-0</v>
       </c>
       <c r="AN13" t="n">
-        <v>-0.03076439323988071</v>
+        <v>0</v>
       </c>
       <c r="AO13" t="n">
-        <v>-0.006911978839894442</v>
+        <v>-0.01244339580283066</v>
       </c>
       <c r="AP13" t="n">
-        <v>0</v>
+        <v>-0.02616287028459998</v>
       </c>
       <c r="AQ13" t="n">
         <v>0</v>
@@ -7395,25 +7395,25 @@
         <v>-0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.01368703063877028</v>
+        <v>0</v>
       </c>
       <c r="AT13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU13" t="n">
-        <v>-0</v>
+        <v>0.1234868949431828</v>
       </c>
       <c r="AV13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW13" t="n">
-        <v>-0.09928441055313711</v>
+        <v>0</v>
       </c>
       <c r="AX13" t="n">
-        <v>-0.02768841472529124</v>
+        <v>-0.005904159878943866</v>
       </c>
       <c r="AY13" t="n">
-        <v>0</v>
+        <v>-0.0617998178080619</v>
       </c>
       <c r="AZ13" t="n">
         <v>0</v>
@@ -7422,52 +7422,52 @@
         <v>-0</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.1214271758365886</v>
+        <v>0</v>
       </c>
       <c r="BC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD13" t="n">
-        <v>-0</v>
+        <v>0.0579982268392056</v>
       </c>
       <c r="BE13" t="n">
         <v>0</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.004217570470927284</v>
+        <v>0</v>
       </c>
       <c r="BG13" t="n">
-        <v>-0.02390858417700231</v>
+        <v>-0.02605781511664183</v>
       </c>
       <c r="BH13" t="n">
-        <v>-0</v>
+        <v>-0.04952963543871915</v>
       </c>
       <c r="BI13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ13" t="n">
         <v>0</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.02168781763849206</v>
+        <v>-0</v>
       </c>
       <c r="BL13" t="n">
         <v>-0</v>
       </c>
       <c r="BM13" t="n">
-        <v>-0</v>
+        <v>0.05518064957611164</v>
       </c>
       <c r="BN13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO13" t="n">
-        <v>-0.01430314423101639</v>
+        <v>-0</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.01965903198258766</v>
+        <v>0.03374109603009773</v>
       </c>
       <c r="BQ13" t="n">
-        <v>-0</v>
+        <v>0.006923230405654165</v>
       </c>
       <c r="BR13" t="n">
         <v>-0</v>
@@ -7476,322 +7476,322 @@
         <v>0</v>
       </c>
       <c r="BT13" t="n">
-        <v>-0.05159443115501796</v>
+        <v>0</v>
       </c>
       <c r="BU13" t="n">
         <v>-0</v>
       </c>
       <c r="BV13" t="n">
-        <v>-0</v>
+        <v>0.05694431402149773</v>
       </c>
       <c r="BW13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX13" t="n">
-        <v>-0.1028533747139868</v>
+        <v>0</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.01567228130517523</v>
+        <v>-0.00878505706844354</v>
       </c>
       <c r="BZ13" t="n">
-        <v>-0</v>
+        <v>-0.0137865728751884</v>
       </c>
       <c r="CA13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC13" t="n">
-        <v>0.1498592217369965</v>
+        <v>0</v>
       </c>
       <c r="CD13" t="n">
         <v>-0</v>
       </c>
       <c r="CE13" t="n">
-        <v>0</v>
+        <v>-0.03215815943760334</v>
       </c>
       <c r="CF13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG13" t="n">
-        <v>0.03580531678162632</v>
+        <v>-0</v>
       </c>
       <c r="CH13" t="n">
-        <v>-0.005447297767392473</v>
+        <v>-0.004434494349291136</v>
       </c>
       <c r="CI13" t="n">
-        <v>-0</v>
+        <v>0.02646885193407263</v>
       </c>
       <c r="CJ13" t="n">
         <v>-0</v>
       </c>
       <c r="CK13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL13" t="n">
-        <v>-0.02142113316066932</v>
+        <v>0</v>
       </c>
       <c r="CM13" t="n">
         <v>0</v>
       </c>
       <c r="CN13" t="n">
-        <v>0</v>
+        <v>-0.02154523065644725</v>
       </c>
       <c r="CO13" t="n">
         <v>0</v>
       </c>
       <c r="CP13" t="n">
-        <v>0.04113906604889182</v>
+        <v>0</v>
       </c>
       <c r="CQ13" t="n">
-        <v>-0.07298408667848277</v>
+        <v>0.01984179989931486</v>
       </c>
       <c r="CR13" t="n">
-        <v>-0</v>
+        <v>-0.01176309421974564</v>
       </c>
       <c r="CS13" t="n">
         <v>-0</v>
       </c>
       <c r="CT13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU13" t="n">
-        <v>0.04651469900622616</v>
+        <v>0</v>
       </c>
       <c r="CV13" t="n">
         <v>0</v>
       </c>
       <c r="CW13" t="n">
-        <v>-0</v>
+        <v>-0.02096775553385949</v>
       </c>
       <c r="CX13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY13" t="n">
-        <v>0.0410971577612139</v>
+        <v>0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>-0.018444816303219</v>
+        <v>-0.004598259934741873</v>
       </c>
       <c r="DA13" t="n">
-        <v>-0</v>
+        <v>0.02479488552370201</v>
       </c>
       <c r="DB13" t="n">
         <v>0</v>
       </c>
       <c r="DC13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD13" t="n">
-        <v>-0.0330518395585046</v>
+        <v>0</v>
       </c>
       <c r="DE13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>0</v>
+        <v>-0.00942792377255054</v>
       </c>
       <c r="DG13" t="n">
         <v>-0</v>
       </c>
       <c r="DH13" t="n">
-        <v>0.02035605395075621</v>
+        <v>-0</v>
       </c>
       <c r="DI13" t="n">
-        <v>0.005369650918023562</v>
+        <v>0.001745953236460921</v>
       </c>
       <c r="DJ13" t="n">
-        <v>-0</v>
+        <v>0.003802847433232294</v>
       </c>
       <c r="DK13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL13" t="n">
         <v>-0</v>
       </c>
       <c r="DM13" t="n">
-        <v>0.00401807573706854</v>
+        <v>0</v>
       </c>
       <c r="DN13" t="n">
         <v>-0</v>
       </c>
       <c r="DO13" t="n">
-        <v>0</v>
+        <v>-0.02257252574968996</v>
       </c>
       <c r="DP13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ13" t="n">
-        <v>-0.01016389673639848</v>
+        <v>-0</v>
       </c>
       <c r="DR13" t="n">
-        <v>-0.01280099658569256</v>
+        <v>0.01153485178943712</v>
       </c>
       <c r="DS13" t="n">
-        <v>-0</v>
+        <v>-0.006552027293018942</v>
       </c>
       <c r="DT13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU13" t="n">
         <v>-0</v>
       </c>
       <c r="DV13" t="n">
-        <v>0.04803208735163849</v>
+        <v>0</v>
       </c>
       <c r="DW13" t="n">
         <v>-0</v>
       </c>
       <c r="DX13" t="n">
-        <v>-0</v>
+        <v>0.001428693419632627</v>
       </c>
       <c r="DY13" t="n">
         <v>0</v>
       </c>
       <c r="DZ13" t="n">
-        <v>-0.02366374015462998</v>
+        <v>-0</v>
       </c>
       <c r="EA13" t="n">
-        <v>-0.01345859449243447</v>
+        <v>-0.0113888537677719</v>
       </c>
       <c r="EB13" t="n">
-        <v>0</v>
+        <v>-0.006446938993383253</v>
       </c>
       <c r="EC13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED13" t="n">
         <v>-0</v>
       </c>
       <c r="EE13" t="n">
-        <v>0.04090932734933022</v>
+        <v>0</v>
       </c>
       <c r="EF13" t="n">
         <v>-0</v>
       </c>
       <c r="EG13" t="n">
-        <v>0</v>
+        <v>-0.01541279637381846</v>
       </c>
       <c r="EH13" t="n">
         <v>-0</v>
       </c>
       <c r="EI13" t="n">
-        <v>0.05624636308505779</v>
+        <v>0</v>
       </c>
       <c r="EJ13" t="n">
-        <v>0.02827469226915966</v>
+        <v>0.006183279215854137</v>
       </c>
       <c r="EK13" t="n">
-        <v>-0</v>
+        <v>0.016938949630433</v>
       </c>
       <c r="EL13" t="n">
         <v>-0</v>
       </c>
       <c r="EM13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN13" t="n">
-        <v>-0.03873929996928524</v>
+        <v>0</v>
       </c>
       <c r="EO13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP13" t="n">
-        <v>0</v>
+        <v>-0.01768352447244188</v>
       </c>
       <c r="EQ13" t="n">
         <v>-0</v>
       </c>
       <c r="ER13" t="n">
-        <v>0.04598629261221045</v>
+        <v>-0</v>
       </c>
       <c r="ES13" t="n">
-        <v>-0.03297379422687514</v>
+        <v>0.0005301889719515236</v>
       </c>
       <c r="ET13" t="n">
-        <v>0</v>
+        <v>0.03615955052527879</v>
       </c>
       <c r="EU13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW13" t="n">
-        <v>-0.04373674230010558</v>
+        <v>-0</v>
       </c>
       <c r="EX13" t="n">
         <v>-0</v>
       </c>
       <c r="EY13" t="n">
-        <v>0</v>
+        <v>-0.0236515397506165</v>
       </c>
       <c r="EZ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA13" t="n">
-        <v>0.03301689016437567</v>
+        <v>-0</v>
       </c>
       <c r="FB13" t="n">
-        <v>-0.008116098690416117</v>
+        <v>0.001030799584953018</v>
       </c>
       <c r="FC13" t="n">
-        <v>0</v>
+        <v>0.02870306760235427</v>
       </c>
       <c r="FD13" t="n">
         <v>-0</v>
       </c>
       <c r="FE13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF13" t="n">
-        <v>-0.04577278615824795</v>
+        <v>0</v>
       </c>
       <c r="FG13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH13" t="n">
-        <v>0</v>
+        <v>-0.002023748522333679</v>
       </c>
       <c r="FI13" t="n">
         <v>0</v>
       </c>
       <c r="FJ13" t="n">
-        <v>0.009089422139167183</v>
+        <v>-0</v>
       </c>
       <c r="FK13" t="n">
-        <v>-0.03996921785678936</v>
+        <v>-0.02117964532220485</v>
       </c>
       <c r="FL13" t="n">
-        <v>-0</v>
+        <v>0.01691733208547199</v>
       </c>
       <c r="FM13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FN13" t="n">
         <v>-0</v>
       </c>
       <c r="FO13" t="n">
-        <v>-0.01943782598840514</v>
+        <v>0</v>
       </c>
       <c r="FP13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ13" t="n">
-        <v>-0</v>
+        <v>-0.0102355319626828</v>
       </c>
       <c r="FR13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS13" t="n">
-        <v>-0.002892391521873573</v>
+        <v>0</v>
       </c>
       <c r="FT13" t="n">
-        <v>-0.01009880177086654</v>
+        <v>-0.0214387972297884</v>
       </c>
       <c r="FU13" t="n">
-        <v>-0</v>
+        <v>0.001205723560567617</v>
       </c>
       <c r="FV13" t="n">
         <v>-0</v>
@@ -7800,34 +7800,34 @@
         <v>-0</v>
       </c>
       <c r="FX13" t="n">
-        <v>-0.03463925068986475</v>
+        <v>0</v>
       </c>
       <c r="FY13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0</v>
+        <v>-0.02293660569364711</v>
       </c>
       <c r="GA13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB13" t="n">
-        <v>0.03265498363295147</v>
+        <v>-0</v>
       </c>
       <c r="GC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD13" t="n">
-        <v>-0</v>
+        <v>-0.0188488363080928</v>
       </c>
       <c r="GE13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF13" t="n">
         <v>-0</v>
       </c>
       <c r="GG13" t="n">
-        <v>0.01397974167240189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -7838,184 +7838,184 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>0.3345422045462771</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-0.1040163273759496</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2082435317359511</v>
+        <v>-0.05689265839859305</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.211650760976217</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3265428453289975</v>
+        <v>-0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>0.2614667340631677</v>
       </c>
       <c r="M14" t="n">
-        <v>-0</v>
+        <v>-0.1237982883111269</v>
       </c>
       <c r="N14" t="n">
-        <v>0.2839654521669653</v>
+        <v>-0.1247101020966574</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.1854174634396233</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.401557998512695</v>
+        <v>-0</v>
       </c>
       <c r="R14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-0</v>
+        <v>0.09688481565730274</v>
       </c>
       <c r="V14" t="n">
-        <v>-0</v>
+        <v>-0.02582500224957221</v>
       </c>
       <c r="W14" t="n">
-        <v>0.09637023281604587</v>
+        <v>0.03479458580762092</v>
       </c>
       <c r="X14" t="n">
-        <v>-0.03850495607117745</v>
+        <v>-0</v>
       </c>
       <c r="Y14" t="n">
         <v>-0</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.201173326028738</v>
+        <v>-0</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB14" t="n">
         <v>-0</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>0.06004206032099968</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>0.03800396211726926</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.1224112006537266</v>
+        <v>0.03052996765202319</v>
       </c>
       <c r="AG14" t="n">
-        <v>-0.0335915942033443</v>
+        <v>0</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI14" t="n">
-        <v>-0.06218699548827417</v>
+        <v>-0</v>
       </c>
       <c r="AJ14" t="n">
         <v>0</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AL14" t="n">
         <v>0</v>
       </c>
       <c r="AM14" t="n">
-        <v>-0</v>
+        <v>-0.01928273281468286</v>
       </c>
       <c r="AN14" t="n">
-        <v>-0</v>
+        <v>-0.03078338412302969</v>
       </c>
       <c r="AO14" t="n">
-        <v>-0.1342992159965544</v>
+        <v>-0.06248062317465185</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.02547066812705285</v>
+        <v>0</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR14" t="n">
-        <v>-0.03011665616452423</v>
+        <v>0</v>
       </c>
       <c r="AS14" t="n">
         <v>-0</v>
       </c>
       <c r="AT14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV14" t="n">
-        <v>-0</v>
+        <v>0.1529712139775669</v>
       </c>
       <c r="AW14" t="n">
-        <v>0</v>
+        <v>-0.01858769403671884</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.08848255432438654</v>
+        <v>0.1708608151468087</v>
       </c>
       <c r="AY14" t="n">
-        <v>-0.1729937635337735</v>
+        <v>-0</v>
       </c>
       <c r="AZ14" t="n">
         <v>-0</v>
       </c>
       <c r="BA14" t="n">
-        <v>0.1422418620807325</v>
+        <v>-0</v>
       </c>
       <c r="BB14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD14" t="n">
         <v>0</v>
       </c>
       <c r="BE14" t="n">
-        <v>0</v>
+        <v>0.0923004019583504</v>
       </c>
       <c r="BF14" t="n">
-        <v>0</v>
+        <v>-0.03984387068528213</v>
       </c>
       <c r="BG14" t="n">
-        <v>0.1454116757380173</v>
+        <v>-0.08900320377887121</v>
       </c>
       <c r="BH14" t="n">
-        <v>-0.01128915818288295</v>
+        <v>0</v>
       </c>
       <c r="BI14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ14" t="n">
-        <v>0.1147527994446131</v>
+        <v>0</v>
       </c>
       <c r="BK14" t="n">
         <v>0</v>
@@ -8027,22 +8027,22 @@
         <v>-0</v>
       </c>
       <c r="BN14" t="n">
-        <v>-0</v>
+        <v>0.03816941572154151</v>
       </c>
       <c r="BO14" t="n">
-        <v>-0</v>
+        <v>0.05536851891374819</v>
       </c>
       <c r="BP14" t="n">
-        <v>0.008995379568645273</v>
+        <v>0.1198218264601084</v>
       </c>
       <c r="BQ14" t="n">
-        <v>0.03765895853567978</v>
+        <v>-0</v>
       </c>
       <c r="BR14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS14" t="n">
-        <v>-0.03982513752889273</v>
+        <v>0</v>
       </c>
       <c r="BT14" t="n">
         <v>-0</v>
@@ -8054,49 +8054,49 @@
         <v>-0</v>
       </c>
       <c r="BW14" t="n">
-        <v>0</v>
+        <v>0.05954179341908349</v>
       </c>
       <c r="BX14" t="n">
-        <v>-0</v>
+        <v>-0.02141594148381698</v>
       </c>
       <c r="BY14" t="n">
-        <v>-0.06080037522128322</v>
+        <v>0.1117756655233817</v>
       </c>
       <c r="BZ14" t="n">
-        <v>-0.07513463691241384</v>
+        <v>0</v>
       </c>
       <c r="CA14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB14" t="n">
-        <v>0.1344486939692701</v>
+        <v>-0</v>
       </c>
       <c r="CC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD14" t="n">
         <v>-0</v>
       </c>
       <c r="CE14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CF14" t="n">
-        <v>-0</v>
+        <v>-0.06959294209998884</v>
       </c>
       <c r="CG14" t="n">
-        <v>-0</v>
+        <v>0.02686093877623242</v>
       </c>
       <c r="CH14" t="n">
-        <v>-0.06592449594456329</v>
+        <v>0.0004054989506993912</v>
       </c>
       <c r="CI14" t="n">
-        <v>0.04898763148265858</v>
+        <v>0</v>
       </c>
       <c r="CJ14" t="n">
         <v>-0</v>
       </c>
       <c r="CK14" t="n">
-        <v>-0.06694665822601377</v>
+        <v>0</v>
       </c>
       <c r="CL14" t="n">
         <v>-0</v>
@@ -8105,109 +8105,109 @@
         <v>0</v>
       </c>
       <c r="CN14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CO14" t="n">
-        <v>-0</v>
+        <v>0.01418004503149746</v>
       </c>
       <c r="CP14" t="n">
-        <v>-0</v>
+        <v>-0.003704657935527651</v>
       </c>
       <c r="CQ14" t="n">
-        <v>-0.06395766407958284</v>
+        <v>-0.1186674801633818</v>
       </c>
       <c r="CR14" t="n">
-        <v>-0.06688922074774162</v>
+        <v>0</v>
       </c>
       <c r="CS14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT14" t="n">
-        <v>-0.03795771890507486</v>
+        <v>-0</v>
       </c>
       <c r="CU14" t="n">
         <v>-0</v>
       </c>
       <c r="CV14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW14" t="n">
         <v>0</v>
       </c>
       <c r="CX14" t="n">
-        <v>0</v>
+        <v>-0.05369284244981106</v>
       </c>
       <c r="CY14" t="n">
-        <v>0</v>
+        <v>0.02648432469705512</v>
       </c>
       <c r="CZ14" t="n">
-        <v>-0.05332261397532718</v>
+        <v>0.02319440181703224</v>
       </c>
       <c r="DA14" t="n">
-        <v>0.04864033296193617</v>
+        <v>-0</v>
       </c>
       <c r="DB14" t="n">
         <v>0</v>
       </c>
       <c r="DC14" t="n">
-        <v>-0.09253040674033151</v>
+        <v>0</v>
       </c>
       <c r="DD14" t="n">
         <v>0</v>
       </c>
       <c r="DE14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF14" t="n">
         <v>-0</v>
       </c>
       <c r="DG14" t="n">
-        <v>0</v>
+        <v>-0.03659946683637923</v>
       </c>
       <c r="DH14" t="n">
-        <v>0</v>
+        <v>0.04330106983779596</v>
       </c>
       <c r="DI14" t="n">
-        <v>-0.02558291595649759</v>
+        <v>-0.0056095734747765</v>
       </c>
       <c r="DJ14" t="n">
-        <v>0.04160137884421881</v>
+        <v>0</v>
       </c>
       <c r="DK14" t="n">
         <v>-0</v>
       </c>
       <c r="DL14" t="n">
-        <v>-0.008419460887850776</v>
+        <v>0</v>
       </c>
       <c r="DM14" t="n">
         <v>-0</v>
       </c>
       <c r="DN14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO14" t="n">
         <v>-0</v>
       </c>
       <c r="DP14" t="n">
-        <v>-0</v>
+        <v>-0.001868307312742693</v>
       </c>
       <c r="DQ14" t="n">
-        <v>-0</v>
+        <v>0.02712015548731022</v>
       </c>
       <c r="DR14" t="n">
-        <v>-0.04947385678677989</v>
+        <v>-0.1420395710614809</v>
       </c>
       <c r="DS14" t="n">
-        <v>0.01880473375102429</v>
+        <v>-0</v>
       </c>
       <c r="DT14" t="n">
         <v>-0</v>
       </c>
       <c r="DU14" t="n">
-        <v>-0.04766126428359429</v>
+        <v>-0</v>
       </c>
       <c r="DV14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW14" t="n">
         <v>-0</v>
@@ -8216,130 +8216,130 @@
         <v>0</v>
       </c>
       <c r="DY14" t="n">
-        <v>-0</v>
+        <v>0.06473487613125521</v>
       </c>
       <c r="DZ14" t="n">
-        <v>0</v>
+        <v>-0.002457176101492261</v>
       </c>
       <c r="EA14" t="n">
-        <v>-0.01838483442169286</v>
+        <v>-0.05875099378788502</v>
       </c>
       <c r="EB14" t="n">
-        <v>0.02555531178852073</v>
+        <v>0</v>
       </c>
       <c r="EC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED14" t="n">
-        <v>0.01500376000678765</v>
+        <v>0</v>
       </c>
       <c r="EE14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG14" t="n">
         <v>0</v>
       </c>
       <c r="EH14" t="n">
-        <v>-0</v>
+        <v>-0.1110914001496662</v>
       </c>
       <c r="EI14" t="n">
-        <v>-0</v>
+        <v>0.04635818549333129</v>
       </c>
       <c r="EJ14" t="n">
-        <v>-0.047938666882166</v>
+        <v>0.05896696643402607</v>
       </c>
       <c r="EK14" t="n">
-        <v>0.05123611951413919</v>
+        <v>-0</v>
       </c>
       <c r="EL14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM14" t="n">
-        <v>-0.02545941436985749</v>
+        <v>-0</v>
       </c>
       <c r="EN14" t="n">
         <v>-0</v>
       </c>
       <c r="EO14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EQ14" t="n">
-        <v>-0</v>
+        <v>-0.006860286306501331</v>
       </c>
       <c r="ER14" t="n">
-        <v>-0</v>
+        <v>0.030564743052281</v>
       </c>
       <c r="ES14" t="n">
-        <v>-0.09931025076426693</v>
+        <v>0.02856841084114657</v>
       </c>
       <c r="ET14" t="n">
-        <v>0.0476423924343664</v>
+        <v>0</v>
       </c>
       <c r="EU14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV14" t="n">
-        <v>-0.07212708727160866</v>
+        <v>-0</v>
       </c>
       <c r="EW14" t="n">
         <v>-0</v>
       </c>
       <c r="EX14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EZ14" t="n">
-        <v>-0</v>
+        <v>-0.06724749697577918</v>
       </c>
       <c r="FA14" t="n">
-        <v>-0</v>
+        <v>0.04259430827403628</v>
       </c>
       <c r="FB14" t="n">
-        <v>-0.07017396889300395</v>
+        <v>0.02112461941074566</v>
       </c>
       <c r="FC14" t="n">
-        <v>0.0542571589540632</v>
+        <v>0</v>
       </c>
       <c r="FD14" t="n">
         <v>-0</v>
       </c>
       <c r="FE14" t="n">
-        <v>-0.09804562329125945</v>
+        <v>0</v>
       </c>
       <c r="FF14" t="n">
         <v>-0</v>
       </c>
       <c r="FG14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH14" t="n">
         <v>-0</v>
       </c>
       <c r="FI14" t="n">
-        <v>0</v>
+        <v>-0.004725861477240727</v>
       </c>
       <c r="FJ14" t="n">
-        <v>-0</v>
+        <v>0.005285212820973009</v>
       </c>
       <c r="FK14" t="n">
-        <v>-0.007629334091531847</v>
+        <v>0.07268587174485637</v>
       </c>
       <c r="FL14" t="n">
-        <v>0.01115333739290794</v>
+        <v>-0</v>
       </c>
       <c r="FM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN14" t="n">
-        <v>-0.05263703538597584</v>
+        <v>0</v>
       </c>
       <c r="FO14" t="n">
         <v>0</v>
@@ -8348,55 +8348,55 @@
         <v>-0</v>
       </c>
       <c r="FQ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR14" t="n">
-        <v>-0</v>
+        <v>-0.004240599187395422</v>
       </c>
       <c r="FS14" t="n">
-        <v>-0</v>
+        <v>-0.007104763743604158</v>
       </c>
       <c r="FT14" t="n">
-        <v>0.0422723347026638</v>
+        <v>0.09031323925689508</v>
       </c>
       <c r="FU14" t="n">
-        <v>-0.01143996541763354</v>
+        <v>0</v>
       </c>
       <c r="FV14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW14" t="n">
-        <v>-0.01262829620012957</v>
+        <v>0</v>
       </c>
       <c r="FX14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY14" t="n">
         <v>-0</v>
       </c>
       <c r="FZ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GA14" t="n">
-        <v>0</v>
+        <v>0.04626409388790098</v>
       </c>
       <c r="GB14" t="n">
-        <v>0</v>
+        <v>-0.05480273634979909</v>
       </c>
       <c r="GC14" t="n">
         <v>-0</v>
       </c>
       <c r="GD14" t="n">
-        <v>-0.03874877815557856</v>
+        <v>-0</v>
       </c>
       <c r="GE14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF14" t="n">
-        <v>0.00217789988520687</v>
+        <v>0</v>
       </c>
       <c r="GG14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -8404,79 +8404,79 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>0.185761519164108</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1179658066494084</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1042638085285008</v>
+        <v>-0.08280529374313922</v>
       </c>
       <c r="F15" t="n">
-        <v>-0</v>
+        <v>-0.05906482528137331</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4118372083104961</v>
+        <v>-0</v>
       </c>
       <c r="I15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>0.1296497095568202</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.07432185664359073</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0.1326302417742153</v>
+        <v>-0.05609002565123491</v>
       </c>
       <c r="O15" t="n">
-        <v>-0</v>
+        <v>-0.03579135002131095</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.4678361855179251</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>-0</v>
+        <v>0.01864672818254303</v>
       </c>
       <c r="U15" t="n">
         <v>-0</v>
       </c>
       <c r="V15" t="n">
-        <v>-0.06616456652069837</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0.1096122598486546</v>
+        <v>-0.02887223281028661</v>
       </c>
       <c r="X15" t="n">
-        <v>-0</v>
+        <v>0.02786397998979286</v>
       </c>
       <c r="Y15" t="n">
         <v>-0</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.1582726309889172</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
         <v>0</v>
@@ -8485,187 +8485,187 @@
         <v>-0</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>0.0305368007271461</v>
       </c>
       <c r="AD15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>-0.03287777084158015</v>
+        <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.00199588251797685</v>
+        <v>0.02202576027203309</v>
       </c>
       <c r="AG15" t="n">
-        <v>-0</v>
+        <v>-0.003733405023159691</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI15" t="n">
-        <v>-0.02685023790167852</v>
+        <v>-0</v>
       </c>
       <c r="AJ15" t="n">
         <v>0</v>
       </c>
       <c r="AK15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>0.02968125502208196</v>
       </c>
       <c r="AM15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN15" t="n">
-        <v>-0.01588494653081481</v>
+        <v>0</v>
       </c>
       <c r="AO15" t="n">
-        <v>-0.09095219200040398</v>
+        <v>-0.01786262120572332</v>
       </c>
       <c r="AP15" t="n">
-        <v>0</v>
+        <v>-0.02616291587461859</v>
       </c>
       <c r="AQ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR15" t="n">
-        <v>0.04443576559399647</v>
+        <v>-0</v>
       </c>
       <c r="AS15" t="n">
         <v>0</v>
       </c>
       <c r="AT15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU15" t="n">
-        <v>0</v>
+        <v>0.1149478478685116</v>
       </c>
       <c r="AV15" t="n">
         <v>0</v>
       </c>
       <c r="AW15" t="n">
-        <v>-0.04764208706989503</v>
+        <v>0</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.09916340191082766</v>
+        <v>-0.0609388444850836</v>
       </c>
       <c r="AY15" t="n">
-        <v>0</v>
+        <v>-0.04359743020474337</v>
       </c>
       <c r="AZ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA15" t="n">
-        <v>0.2522559094603711</v>
+        <v>-0</v>
       </c>
       <c r="BB15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD15" t="n">
-        <v>0</v>
+        <v>0.04113471601615659</v>
       </c>
       <c r="BE15" t="n">
         <v>0</v>
       </c>
       <c r="BF15" t="n">
-        <v>-0.04356209698007142</v>
+        <v>0</v>
       </c>
       <c r="BG15" t="n">
-        <v>0.009647625282424403</v>
+        <v>-0.033586889642026</v>
       </c>
       <c r="BH15" t="n">
-        <v>-0</v>
+        <v>-0.008106854990944429</v>
       </c>
       <c r="BI15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0.06795032334384875</v>
+        <v>0</v>
       </c>
       <c r="BK15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL15" t="n">
         <v>-0</v>
       </c>
       <c r="BM15" t="n">
-        <v>-0</v>
+        <v>0.05040382219578231</v>
       </c>
       <c r="BN15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO15" t="n">
-        <v>-0.01906921047450268</v>
+        <v>0</v>
       </c>
       <c r="BP15" t="n">
-        <v>-0.0298479346440042</v>
+        <v>0.02459522723025488</v>
       </c>
       <c r="BQ15" t="n">
-        <v>0</v>
+        <v>0.01557470893925633</v>
       </c>
       <c r="BR15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS15" t="n">
-        <v>-0.09346239138302202</v>
+        <v>0</v>
       </c>
       <c r="BT15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU15" t="n">
         <v>-0</v>
       </c>
       <c r="BV15" t="n">
-        <v>-0</v>
+        <v>0.06765178711632917</v>
       </c>
       <c r="BW15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX15" t="n">
-        <v>-0.03126056750842748</v>
+        <v>0</v>
       </c>
       <c r="BY15" t="n">
-        <v>0.06671098593848648</v>
+        <v>-0.03238911692027842</v>
       </c>
       <c r="BZ15" t="n">
-        <v>-0</v>
+        <v>0.01062193215397759</v>
       </c>
       <c r="CA15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB15" t="n">
-        <v>0.2085335186043989</v>
+        <v>-0</v>
       </c>
       <c r="CC15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD15" t="n">
         <v>-0</v>
       </c>
       <c r="CE15" t="n">
-        <v>0</v>
+        <v>-0.02639414156272516</v>
       </c>
       <c r="CF15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG15" t="n">
-        <v>0.02850201632031986</v>
+        <v>-0</v>
       </c>
       <c r="CH15" t="n">
-        <v>-0.05070965493104514</v>
+        <v>0.008559142952868666</v>
       </c>
       <c r="CI15" t="n">
-        <v>-0</v>
+        <v>0.01613051095244695</v>
       </c>
       <c r="CJ15" t="n">
         <v>-0</v>
       </c>
       <c r="CK15" t="n">
-        <v>-0.07964767769415602</v>
+        <v>0</v>
       </c>
       <c r="CL15" t="n">
         <v>0</v>
@@ -8674,52 +8674,52 @@
         <v>0</v>
       </c>
       <c r="CN15" t="n">
-        <v>0</v>
+        <v>-0.001681295693012171</v>
       </c>
       <c r="CO15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP15" t="n">
-        <v>-0.0245701366266271</v>
+        <v>-0</v>
       </c>
       <c r="CQ15" t="n">
-        <v>-0.1597674936082739</v>
+        <v>-0.01275195504509536</v>
       </c>
       <c r="CR15" t="n">
-        <v>-0</v>
+        <v>-0.02093154650694527</v>
       </c>
       <c r="CS15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT15" t="n">
-        <v>-0.05138927545252452</v>
+        <v>-0</v>
       </c>
       <c r="CU15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW15" t="n">
-        <v>-0</v>
+        <v>-0.01952888184489697</v>
       </c>
       <c r="CX15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY15" t="n">
-        <v>0.03583322462808857</v>
+        <v>0</v>
       </c>
       <c r="CZ15" t="n">
-        <v>-0.06778058162993394</v>
+        <v>0.004553180121479291</v>
       </c>
       <c r="DA15" t="n">
-        <v>0</v>
+        <v>0.02295379872539117</v>
       </c>
       <c r="DB15" t="n">
         <v>0</v>
       </c>
       <c r="DC15" t="n">
-        <v>-0.09171027887105207</v>
+        <v>-0</v>
       </c>
       <c r="DD15" t="n">
         <v>0</v>
@@ -8728,241 +8728,241 @@
         <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>-0</v>
+        <v>-0.009446839789090784</v>
       </c>
       <c r="DG15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH15" t="n">
-        <v>0.02890323692381429</v>
+        <v>-0</v>
       </c>
       <c r="DI15" t="n">
-        <v>0.02631794484368063</v>
+        <v>0.008389746392797848</v>
       </c>
       <c r="DJ15" t="n">
-        <v>0</v>
+        <v>-0.004198287361923691</v>
       </c>
       <c r="DK15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL15" t="n">
-        <v>-0.01565614200122375</v>
+        <v>-0</v>
       </c>
       <c r="DM15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN15" t="n">
         <v>-0</v>
       </c>
       <c r="DO15" t="n">
-        <v>0</v>
+        <v>-0.02386988757301259</v>
       </c>
       <c r="DP15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ15" t="n">
-        <v>-0.05932498586735532</v>
+        <v>-0</v>
       </c>
       <c r="DR15" t="n">
-        <v>-0.01349397326965751</v>
+        <v>0.02125622512683335</v>
       </c>
       <c r="DS15" t="n">
-        <v>-0</v>
+        <v>0.02144786251296666</v>
       </c>
       <c r="DT15" t="n">
         <v>-0</v>
       </c>
       <c r="DU15" t="n">
-        <v>-0.009225076980343279</v>
+        <v>-0</v>
       </c>
       <c r="DV15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW15" t="n">
         <v>-0</v>
       </c>
       <c r="DX15" t="n">
-        <v>0</v>
+        <v>-0.005336672732941069</v>
       </c>
       <c r="DY15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ15" t="n">
-        <v>-0.005322166803610519</v>
+        <v>-0</v>
       </c>
       <c r="EA15" t="n">
-        <v>0.0572148367040238</v>
+        <v>-0.02320332016238783</v>
       </c>
       <c r="EB15" t="n">
-        <v>0</v>
+        <v>-0.01488335116879579</v>
       </c>
       <c r="EC15" t="n">
         <v>0</v>
       </c>
       <c r="ED15" t="n">
-        <v>0.0374162690774531</v>
+        <v>0</v>
       </c>
       <c r="EE15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF15" t="n">
         <v>0</v>
       </c>
       <c r="EG15" t="n">
-        <v>0</v>
+        <v>-0.01621237883264771</v>
       </c>
       <c r="EH15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI15" t="n">
-        <v>0.08580784452915273</v>
+        <v>0</v>
       </c>
       <c r="EJ15" t="n">
-        <v>0.02813551612866927</v>
+        <v>0.01577216402764448</v>
       </c>
       <c r="EK15" t="n">
-        <v>-0</v>
+        <v>0.007292625230345929</v>
       </c>
       <c r="EL15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM15" t="n">
-        <v>-0.1296101109278287</v>
+        <v>0</v>
       </c>
       <c r="EN15" t="n">
         <v>-0</v>
       </c>
       <c r="EO15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP15" t="n">
-        <v>-0</v>
+        <v>0.0006805769808963989</v>
       </c>
       <c r="EQ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER15" t="n">
-        <v>-0.07250837688031431</v>
+        <v>-0</v>
       </c>
       <c r="ES15" t="n">
-        <v>-0.1067390825235123</v>
+        <v>-0.0091960118702764</v>
       </c>
       <c r="ET15" t="n">
-        <v>-0</v>
+        <v>-0.02677545493915625</v>
       </c>
       <c r="EU15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV15" t="n">
-        <v>0.05827904197057653</v>
+        <v>0</v>
       </c>
       <c r="EW15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY15" t="n">
-        <v>0</v>
+        <v>-0.01688998410672381</v>
       </c>
       <c r="EZ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA15" t="n">
-        <v>0.03111797634482825</v>
+        <v>-0</v>
       </c>
       <c r="FB15" t="n">
-        <v>-0.05732457656523135</v>
+        <v>0.001741843322154773</v>
       </c>
       <c r="FC15" t="n">
-        <v>-0</v>
+        <v>0.0234164705170184</v>
       </c>
       <c r="FD15" t="n">
         <v>-0</v>
       </c>
       <c r="FE15" t="n">
-        <v>-0.09717212269721676</v>
+        <v>0</v>
       </c>
       <c r="FF15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG15" t="n">
         <v>0</v>
       </c>
       <c r="FH15" t="n">
-        <v>-0</v>
+        <v>-0.02039740211811467</v>
       </c>
       <c r="FI15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ15" t="n">
-        <v>0.03458811676299191</v>
+        <v>-0</v>
       </c>
       <c r="FK15" t="n">
-        <v>-0.04444483140970903</v>
+        <v>-0.03842939906323027</v>
       </c>
       <c r="FL15" t="n">
-        <v>0</v>
+        <v>0.01951696093881562</v>
       </c>
       <c r="FM15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN15" t="n">
-        <v>-0.05372483813608945</v>
+        <v>-0</v>
       </c>
       <c r="FO15" t="n">
         <v>0</v>
       </c>
       <c r="FP15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ15" t="n">
-        <v>0</v>
+        <v>0.002203766585031614</v>
       </c>
       <c r="FR15" t="n">
         <v>-0</v>
       </c>
       <c r="FS15" t="n">
-        <v>-0.05392951350019006</v>
+        <v>-0</v>
       </c>
       <c r="FT15" t="n">
-        <v>-0.002839969301255975</v>
+        <v>0.001105556594987681</v>
       </c>
       <c r="FU15" t="n">
-        <v>-0</v>
+        <v>0.01600898399904726</v>
       </c>
       <c r="FV15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW15" t="n">
-        <v>-0.01314677852333627</v>
+        <v>-0</v>
       </c>
       <c r="FX15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ15" t="n">
-        <v>-0</v>
+        <v>-0.02248658517898526</v>
       </c>
       <c r="GA15" t="n">
         <v>0</v>
       </c>
       <c r="GB15" t="n">
-        <v>-0.02642526252563965</v>
+        <v>0</v>
       </c>
       <c r="GC15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD15" t="n">
-        <v>-0</v>
+        <v>-0.02490499780259479</v>
       </c>
       <c r="GE15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF15" t="n">
-        <v>-0.03107668662603748</v>
+        <v>0</v>
       </c>
       <c r="GG15" t="n">
         <v>0</v>
